--- a/paper/03_COVID-19/saved_model/feature_importance.xlsx
+++ b/paper/03_COVID-19/saved_model/feature_importance.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,7 +394,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>fold_00</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>fold_01</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>fold_02</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>fold_03</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>average_importance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>mannwhitneyu_p-value</t>
         </is>
       </c>
     </row>
@@ -421,7 +446,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.05358601125767808</v>
+        <v>0.05689819810369114</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04599537061533498</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.05102873327741339</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.06042175392605722</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.05358601398062419</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.004794722606996021</v>
       </c>
     </row>
     <row r="3">
@@ -447,7 +487,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.05165879383645871</v>
+        <v>0.02138221567773376</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.05923306787154885</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.06975063815252253</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.05626925406163495</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.05165879394086002</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.905949155397355e-05</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +528,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.04977135215323771</v>
+        <v>0.03003063852607005</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.04419818284458948</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.08591495633527829</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03894161477391441</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.04977134811996306</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.008121641385946319</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +569,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.02976091536133153</v>
+        <v>0.04481129027358121</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.008756390824657293</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03274105083497971</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.03273492238507361</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.02976091357957296</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.078701005854216e-06</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +610,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.02636130528370036</v>
+        <v>0.0150444227124617</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01339617033281775</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.06064509713032686</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01635952306514358</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.02636130331018748</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4872385503716935</v>
       </c>
     </row>
     <row r="7">
@@ -551,7 +651,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.0228527230505936</v>
+        <v>0.02376446372021109</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0296265205553936</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02432068629951219</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01369921696306207</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02285272188454474</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.06492256717294e-05</v>
       </c>
     </row>
     <row r="8">
@@ -577,7 +692,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.02118447080188083</v>
+        <v>0.021911439612885</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01634745462678247</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02702818859366143</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01945080009781793</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02118447073278671</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3937519540397847</v>
       </c>
     </row>
     <row r="9">
@@ -603,7 +733,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.01996926900258759</v>
+        <v>0.02669739231215206</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01583985489242889</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01820873209829021</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01913110068591298</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01996926999719604</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.02214787513454435</v>
       </c>
     </row>
     <row r="10">
@@ -629,7 +774,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.01967498935852085</v>
+        <v>0.02208343712792157</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01072440051887026</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.02513482847461517</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.02075727369998038</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01967498495534684</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4307250750250118</v>
       </c>
     </row>
     <row r="11">
@@ -655,7 +815,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.01812536966120302</v>
+        <v>0.007723464568947081</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.02166134570475935</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.02526915072373144</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01784751519882821</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01812536904906652</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.009186068455657e-05</v>
       </c>
     </row>
     <row r="12">
@@ -681,7 +856,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.01449454062255594</v>
+        <v>0.00567318167594291</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01283971098789788</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.02867491955482697</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01079033307424888</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01449453632322916</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.002010442443877672</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +897,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.01421222236147472</v>
+        <v>0.01460840453165816</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.007606309323958438</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.01681345123992567</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01782072492281117</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01421222250458836</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4717416563469096</v>
       </c>
     </row>
     <row r="14">
@@ -733,7 +938,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.01415531643233475</v>
+        <v>0.0104978519460761</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.009572166536461835</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.01863600079432428</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.01791524639280875</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01415531641741774</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2843680487927731</v>
       </c>
     </row>
     <row r="15">
@@ -759,7 +979,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.01274786061361325</v>
+        <v>0.01535822146699702</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01499695711578805</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.008058888896840153</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0125773635300755</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01274785775242518</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.03187492559381031</v>
       </c>
     </row>
     <row r="16">
@@ -785,7 +1020,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.01253156969997078</v>
+        <v>0.007382595018153228</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01010588076138933</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.01585479345201598</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01678301212267148</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01253157033855751</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9752154474068457</v>
       </c>
     </row>
     <row r="17">
@@ -811,7 +1061,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.01082640332126006</v>
+        <v>0.01364614815727517</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.008367323794453069</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.002176926768265727</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.01911520629777142</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01082640125444135</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1098450416892772</v>
       </c>
     </row>
     <row r="18">
@@ -837,7 +1102,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.01009282637592327</v>
+        <v>0.007086926237358807</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.005373704873657799</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01741294651182846</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0104977278076438</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01009282635762222</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.01242847813124304</v>
       </c>
     </row>
     <row r="19">
@@ -863,7 +1143,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.01002096342357592</v>
+        <v>0.004811965584593932</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.002963670761619438</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.02958881493685377</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.002719399695565838</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.01002096274465824</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.882694847199539e-10</v>
       </c>
     </row>
     <row r="20">
@@ -889,7 +1184,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.009625030894556519</v>
+        <v>0.01078132938839818</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.004190615649165844</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.00869681875476095</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.01483136197183966</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.009625031441041158</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1820078208924515</v>
       </c>
     </row>
     <row r="21">
@@ -915,7 +1225,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.00853345811458754</v>
+        <v>0.0108129081499852</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.005677689163307294</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.009625154311059597</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.008018075779709324</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.008533456851015355</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0004187839031324429</v>
       </c>
     </row>
     <row r="22">
@@ -941,7 +1266,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.008484511265345518</v>
+        <v>0.005416286057786459</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.008927108360921469</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.00461918251250971</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01497546784127044</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.00848451119312202</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1149549171910391</v>
       </c>
     </row>
     <row r="23">
@@ -967,7 +1307,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.008345969544833479</v>
+        <v>0.0213929164150725</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.005048666584906348</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.004351327479482661</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.002590966570526371</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.008345969262496969</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9261470990900253</v>
       </c>
     </row>
     <row r="24">
@@ -993,7 +1348,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.008250287983548751</v>
+        <v>0.005267802705939404</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.009218631783973972</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.00594105980713947</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.01257365776305952</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.008250288015028091</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.02065183669472397</v>
       </c>
     </row>
     <row r="25">
@@ -1019,7 +1389,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.007825085924631509</v>
+        <v>0.004830155679412793</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.004649181055602014</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.00838177506294204</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.01343922955005866</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.007825085337003877</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.02440979012233266</v>
       </c>
     </row>
     <row r="26">
@@ -1045,7 +1430,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.007553464376428684</v>
+        <v>0.01398073099829126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.008297628172017103</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0007380218170212197</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.007197467618688114</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.007553462151504426</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0024798413821293</v>
       </c>
     </row>
     <row r="27">
@@ -1071,7 +1471,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.007058692155793435</v>
+        <v>0.009609883187001055</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.007583390167922198</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.004421400067514006</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.006620091912725186</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.007058691333790611</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.003735754143924774</v>
       </c>
     </row>
     <row r="28">
@@ -1097,7 +1512,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.006978142667151332</v>
+        <v>0.003885752409473621</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.009254657005282217</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0028023227188899</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01196984469100426</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.006978144206162501</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5223748697670274</v>
       </c>
     </row>
     <row r="29">
@@ -1123,7 +1553,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.005930746937342371</v>
+        <v>0.005048982895531774</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.004131339419377847</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.004534770721531409</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.01000789204768611</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.005930746271031786</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1872224713774333</v>
       </c>
     </row>
     <row r="30">
@@ -1149,7 +1594,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.005374345723603031</v>
+        <v>0.002674723830170676</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.002499213743709062</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.00687442843574355</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.009449015511125905</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.005374345380187299</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1139046246398245</v>
       </c>
     </row>
     <row r="31">
@@ -1175,7 +1635,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.005285867805108818</v>
+        <v>0.006866688410442182</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.007289805330365101</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.002418420607364962</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.00456855890323021</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.005285868312850613</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01233988105264924</v>
       </c>
     </row>
     <row r="32">
@@ -1201,7 +1676,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.00498347436788515</v>
+        <v>0.008251517084273814</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.002450494945478033</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.004346595659128189</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.004885288021872138</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.004983473927688043</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.01974787180991382</v>
       </c>
     </row>
     <row r="33">
@@ -1227,7 +1717,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.004917999072452908</v>
+        <v>0.009438965884994866</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.002123972644987908</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.003141081838983731</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.004967974923557357</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.004917998823130966</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7863698899624423</v>
       </c>
     </row>
     <row r="34">
@@ -1253,7 +1758,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.004334299730453868</v>
+        <v>0.002957014674654394</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.005031496078036216</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.006684124698293234</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.002664558642448871</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.004334298523358179</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.891623462909993e-07</v>
       </c>
     </row>
     <row r="35">
@@ -1279,7 +1799,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.004156875679541921</v>
+        <v>0.002490512851975577</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0006595746476602376</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.009961678152418147</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.003515734813888501</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.004156875116485615</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4379571750393336</v>
       </c>
     </row>
     <row r="36">
@@ -1305,7 +1840,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.00397682769255338</v>
+        <v>0.002720345436362194</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.001934929838464749</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.007632961636391399</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.00361907272029161</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.003976827407877487</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.5868348019590022</v>
       </c>
     </row>
     <row r="37">
@@ -1331,7 +1881,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.003824398224328615</v>
+        <v>0.006817747583675642</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.002688451005064003</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.001459339563066632</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.004332054853603685</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.003824398251352491</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8056269085708099</v>
       </c>
     </row>
     <row r="38">
@@ -1357,7 +1922,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.003532200662862684</v>
+        <v>0.004615036540126794</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.005114149978556214</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.001938264984815034</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.002461353490795716</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.00353220124857344</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.7092101461783789</v>
       </c>
     </row>
     <row r="39">
@@ -1383,7 +1963,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.003462883633481882</v>
+        <v>0.001930904014541111</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.004787296613604275</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.005386311013300013</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.001747017079953552</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.003462882180349738</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.06110782007125715</v>
       </c>
     </row>
     <row r="40">
@@ -1409,7 +2004,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.003227122839417972</v>
+        <v>0.0024182762673405</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.001791031611200768</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.002336923279594174</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.006362260847079435</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.003227123001303719</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.179763923981003e-07</v>
       </c>
     </row>
     <row r="41">
@@ -1435,7 +2045,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.003209737565124458</v>
+        <v>0.001645598075630922</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.003987083553953917</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.004491696076409108</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.002714576249572433</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.003209738488891595</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.03165362485147714</v>
       </c>
     </row>
     <row r="42">
@@ -1461,7 +2086,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.00309766351440541</v>
+        <v>0.003585286233310395</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.002300017386264661</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.001674068920718107</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.004831280141191872</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.003097663170371258</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.4631997618784479</v>
       </c>
     </row>
     <row r="43">
@@ -1487,7 +2127,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.002922981618055237</v>
+        <v>0.003624685294951002</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.001114380552982279</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.003226371762421406</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.003726490534177743</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.002922982036133108</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.01011163036725153</v>
       </c>
     </row>
     <row r="44">
@@ -1513,7 +2168,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.002860690600343743</v>
+        <v>0.002535847592887172</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.001227427602282116</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.003829774040211482</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.003849712103364196</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.002860690334686241</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3463254798815105</v>
       </c>
     </row>
     <row r="45">
@@ -1539,7 +2209,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.002837181758525164</v>
+        <v>0.002673531930424405</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.001598087881666353</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.003564439265272677</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.003512667754435836</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.002837181707949818</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.556106503428825e-06</v>
       </c>
     </row>
     <row r="46">
@@ -1565,7 +2250,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.002662823414598925</v>
+        <v>0.001012966055226719</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.001845221255930538</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.006043367235532393</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.001749742138264899</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.002662824171238638</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0001346755719012521</v>
       </c>
     </row>
     <row r="47">
@@ -1591,7 +2291,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.002629787471401955</v>
+        <v>0.003580377490634309</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0008851772015738787</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.001511189432143845</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.004542405356409774</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.002629787370190452</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2124663779312072</v>
       </c>
     </row>
     <row r="48">
@@ -1617,7 +2332,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.002533470719621994</v>
+        <v>0.001275282207665229</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0004809084115205183</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.004556628442839645</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.003821062510130069</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.002533470393038866</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.08461417986701485</v>
       </c>
     </row>
     <row r="49">
@@ -1643,7 +2373,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.00241713711000652</v>
+        <v>0.004531869260085671</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.00123056074053133</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.002096836220630959</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.001809281622065875</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.002417136960828459</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.5437730003628061</v>
       </c>
     </row>
     <row r="50">
@@ -1669,7 +2414,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.002414755032837351</v>
+        <v>0.002487926511525188</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.001705661607047997</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.00256537745446814</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.002900053017239351</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.002414754647570169</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.01453918601103526</v>
       </c>
     </row>
     <row r="51">
@@ -1695,7 +2455,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.002214803576527076</v>
+        <v>0.00285510248268302</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.001195545366684303</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.002289814830221343</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.002518752289727976</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.002214803742329161</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.4713157032390254</v>
       </c>
     </row>
     <row r="52">
@@ -1721,7 +2496,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.002167514399486341</v>
+        <v>0.001435072055783723</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.001172371767307245</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.001466334962489268</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.004596277949499339</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.002167514183769893</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.1972037176541287</v>
       </c>
     </row>
     <row r="53">
@@ -1747,7 +2537,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.002166484581861671</v>
+        <v>0.001737025229227161</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0009153391404595733</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.002883989751646894</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.00312958378123593</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.002166484475642389</v>
+      </c>
+      <c r="K53" t="n">
+        <v>6.698394275122051e-08</v>
       </c>
     </row>
     <row r="54">
@@ -1773,7 +2578,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.00214106388649106</v>
+        <v>0.001910257965397088</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.001093598589522602</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.003669020849186416</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.001891380588774982</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.002141064498220272</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.005229708636146257</v>
       </c>
     </row>
     <row r="55">
@@ -1799,7 +2619,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.002130963252467679</v>
+        <v>0.002853637018953997</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.001987826600215436</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.001518392855626896</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.002163998802555107</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.002130963819337859</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.2836728986214893</v>
       </c>
     </row>
     <row r="56">
@@ -1825,7 +2660,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.002109151949196384</v>
+        <v>0.002202608990391768</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.00159436140747706</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.001545632026577316</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.003094007053134318</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.002109152369395116</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.8998915023385108</v>
       </c>
     </row>
     <row r="57">
@@ -1851,7 +2701,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.00203892886665912</v>
+        <v>0.001947509399863706</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0006838099379872113</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.002901726885585145</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.002622668533359685</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.002038928689198937</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.1237558504550177</v>
       </c>
     </row>
     <row r="58">
@@ -1877,7 +2742,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.001965500432686828</v>
+        <v>0.001932586241750718</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.001355330265582956</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.002159364380211423</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.00241472068401903</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.001965500392891032</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.8389683173690465</v>
       </c>
     </row>
     <row r="59">
@@ -1903,7 +2783,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.001949266082463681</v>
+        <v>0.00192580440756608</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0009927802237151666</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.002702585659391294</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.002175894113681009</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.001949266101088387</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.0001294838594421907</v>
       </c>
     </row>
     <row r="60">
@@ -1929,7 +2824,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.001869803188526188</v>
+        <v>0.001642847148911253</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.001275746135574332</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.003629436089518105</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0009311821172232551</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.001869802872806736</v>
+      </c>
+      <c r="K60" t="n">
+        <v>8.637660835025258e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1955,7 +2865,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.00181193158534045</v>
+        <v>0.002416629046855476</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.001446220282518053</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0009283597132441917</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.00245651712164093</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.001811931541064662</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.1035466985296902</v>
       </c>
     </row>
     <row r="62">
@@ -1981,7 +2906,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.001808337436563328</v>
+        <v>0.001622689512435612</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.001145898008067415</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.002912214468625746</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.001552547608086748</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.00180833739930388</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.169725846393445</v>
       </c>
     </row>
     <row r="63">
@@ -2007,7 +2947,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.001728478926621865</v>
+        <v>0.001275118886202083</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0005057945337169033</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.003349771650035837</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.001783228084646044</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.001728478288650217</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9277651649500677</v>
       </c>
     </row>
     <row r="64">
@@ -2033,7 +2988,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.001659369215298491</v>
+        <v>0.001235045065691069</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0008466722161227475</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.00282437800625238</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.001731381746387579</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.001659369258613444</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.0003110339106305105</v>
       </c>
     </row>
     <row r="65">
@@ -2059,7 +3029,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.001439928117256562</v>
+        <v>0.002024567677440363</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0007148985714827587</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.001754990259185095</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.001265256091977361</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.001439928150021394</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.001789837418262889</v>
       </c>
     </row>
     <row r="66">
@@ -2085,7 +3070,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.001423909455133368</v>
+        <v>0.002299191588416604</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0009865959171400499</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.001123916092159942</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.001285934077630738</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.001423909418836833</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.1608746367007626</v>
       </c>
     </row>
     <row r="67">
@@ -2111,7 +3111,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.001272958219835832</v>
+        <v>0.0009595493725655895</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0007911932994817391</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.00145203793554166</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.001889052615838124</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.001272958305856778</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.007120138838020023</v>
       </c>
     </row>
     <row r="68">
@@ -2137,7 +3152,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.001259614369003617</v>
+        <v>0.001271957678777228</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.00111750169665155</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.001229198652021314</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.001419799569814827</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.00125961439931623</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0006146300597960236</v>
       </c>
     </row>
     <row r="69">
@@ -2163,7 +3193,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.001180598410886826</v>
+        <v>0.001457783766278393</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0005675552794943259</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.001220395531972109</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.001476658112469914</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.001180598172553685</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.009503794384702148</v>
       </c>
     </row>
     <row r="70">
@@ -2189,7 +3234,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.001176525333126365</v>
+        <v>0.001391410546091341</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0009706922592169461</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.001072107749439399</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.001271890849200784</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.001176525350987118</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.6096492399496339</v>
       </c>
     </row>
     <row r="71">
@@ -2215,7 +3275,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.001097914795320195</v>
+        <v>0.001499122759411264</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0003368357464310377</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0014369029007969</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.001118797455104825</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.001097914715436007</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.7590734250748037</v>
       </c>
     </row>
     <row r="72">
@@ -2241,7 +3316,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.001087745256692261</v>
+        <v>0.0008395276219771372</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0005780594070045816</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.001665261396908647</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.001268132033144069</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.001087745114758609</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.4185919493104693</v>
       </c>
     </row>
     <row r="73">
@@ -2267,7 +3357,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.001082099403492148</v>
+        <v>0.001017865648240201</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0008041542817769269</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.001308561163360678</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.001197817120031909</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.001082099553352429</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.1759621066768299</v>
       </c>
     </row>
     <row r="74">
@@ -2293,7 +3398,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.001081907194149774</v>
+        <v>0.0009010230002080492</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.001649279915353522</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0006094305551941539</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.001167896430197194</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.00108190747523823</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.5213240201274751</v>
       </c>
     </row>
     <row r="75">
@@ -2319,7 +3439,22 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.001065969021823245</v>
+        <v>0.00117616584190785</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0006611700623536186</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.001268478133034886</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.001158062952731365</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.00106596924750693</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.03569349353302168</v>
       </c>
     </row>
     <row r="76">
@@ -2345,7 +3480,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.0009513463145903124</v>
+        <v>0.001271907274812644</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0004948484989003158</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.000923970306835144</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.001114659357688524</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0009513463595591568</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.275700928383181e-10</v>
       </c>
     </row>
     <row r="77">
@@ -2371,7 +3521,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.000933061118518995</v>
+        <v>0.001282865500261524</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0003578537804932191</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.0009106825306663127</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.00118084259073226</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0009330611005383291</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9062376172843439</v>
       </c>
     </row>
     <row r="78">
@@ -2397,7 +3562,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.0009023066941005926</v>
+        <v>0.001487588939171159</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0006162910073247636</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.0006348765668890335</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.0008704700614447258</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0009023066437074203</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.178426420314157</v>
       </c>
     </row>
     <row r="79">
@@ -2423,7 +3603,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.0008999329906882268</v>
+        <v>0.001352133714642281</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0005732564930815343</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0008926540662384391</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0007816870845084596</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0008999328396176785</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.5194001182762076</v>
       </c>
     </row>
     <row r="80">
@@ -2449,7 +3644,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0007902922314145006</v>
+        <v>0.0008464191125896476</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0004835153988407716</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0009418881553840967</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.000889346305627794</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0007902922431105775</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.2862048450192993</v>
       </c>
     </row>
     <row r="81">
@@ -2475,7 +3685,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0007828170153094912</v>
+        <v>0.0009770518768062839</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0006094034620367335</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0005015714121573733</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.001043241928616373</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0007828171699041911</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.590061229665579e-15</v>
       </c>
     </row>
     <row r="82">
@@ -2501,7 +3726,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.0006589896109671575</v>
+        <v>0.0007711108859900798</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0003777715619207411</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0008632467943306746</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.0006238298589393994</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0006589897752952238</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.6387576944522118</v>
       </c>
     </row>
     <row r="83">
@@ -2527,7 +3767,22 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0006541550753884948</v>
+        <v>0.0007757804906531838</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.000265306071432846</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0008763182580008441</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0006992158774343435</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0006541551743803043</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.848923801635772</v>
       </c>
     </row>
     <row r="84">
@@ -2553,7 +3808,22 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0006260216543855735</v>
+        <v>0.0005941069118085778</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0002409328747369143</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0006717091187249187</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.0009973368647959602</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.0006260214425165927</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3125116092997299</v>
       </c>
     </row>
     <row r="85">
@@ -2579,7 +3849,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.0005980839133074411</v>
+        <v>0.0006220397438639098</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0002654722649817005</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0005195319100529193</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0009852914387584752</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0005980838394142511</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.2659211424924316</v>
       </c>
     </row>
     <row r="86">
@@ -2605,7 +3890,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.0005792830930753019</v>
+        <v>0.0007176851598271494</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0004288374016340299</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0005828844064009293</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.0005877264005019689</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0005792833420910193</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0229549106379376</v>
       </c>
     </row>
     <row r="87">
@@ -2631,7 +3931,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.000480887775696561</v>
+        <v>0.0007131449658883075</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0002460104785459542</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0005244934924135706</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.000439902251136331</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0004808877969960408</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.5677009819503578</v>
       </c>
     </row>
     <row r="88">
@@ -2657,7 +3972,22 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.0004043400270355041</v>
+        <v>0.000575764484141116</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0001290113916584442</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0004026139319752584</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.0005099702838778618</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0004043400229131701</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0002439192179918831</v>
       </c>
     </row>
     <row r="89">
@@ -2683,7 +4013,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.0003533732045901784</v>
+        <v>0.0002962819051517895</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.000179196727299724</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.000346611039106222</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0005914035320302319</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.0003533733008969919</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.5144493967768502</v>
       </c>
     </row>
   </sheetData>

--- a/paper/03_COVID-19/saved_model/feature_importance.xlsx
+++ b/paper/03_COVID-19/saved_model/feature_importance.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,11 +417,6 @@
           <t>average_importance</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>mannwhitneyu_p-value</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -446,22 +441,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.05689819810369114</v>
+        <v>0.05689814674206825</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04599537061533498</v>
+        <v>0.04599650171972743</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05102873327741339</v>
+        <v>0.05102838577975951</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06042175392605722</v>
+        <v>0.0604216698356802</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05358601398062419</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.004794722606996021</v>
+        <v>0.05358617601930885</v>
       </c>
     </row>
     <row r="3">
@@ -487,22 +479,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.02138221567773376</v>
+        <v>0.02138234218744304</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05923306787154885</v>
+        <v>0.0592331448136934</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06975063815252253</v>
+        <v>0.06974952987557322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05626925406163495</v>
+        <v>0.05626784513413923</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05165879394086002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.905949155397355e-05</v>
+        <v>0.05165821550271223</v>
       </c>
     </row>
     <row r="4">
@@ -528,22 +517,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.03003063852607005</v>
+        <v>0.03002960194614799</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04419818284458948</v>
+        <v>0.04419836779624346</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08591495633527829</v>
+        <v>0.0859153214295453</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03894161477391441</v>
+        <v>0.03894107373106247</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04977134811996306</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.008121641385946319</v>
+        <v>0.04977109122574981</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +555,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.04481129027358121</v>
+        <v>0.04481024635349054</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008756390824657293</v>
+        <v>0.008756398107500311</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03274105083497971</v>
+        <v>0.0327406618541153</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03273492238507361</v>
+        <v>0.03273497991737474</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02976091357957296</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.078701005854216e-06</v>
+        <v>0.02976057155812022</v>
       </c>
     </row>
     <row r="6">
@@ -610,22 +593,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.0150444227124617</v>
+        <v>0.0150440856854237</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01339617033281775</v>
+        <v>0.01339575242542638</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06064509713032686</v>
+        <v>0.06064482812101771</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01635952306514358</v>
+        <v>0.01635944006079334</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02636130331018748</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.4872385503716935</v>
+        <v>0.02636102657316528</v>
       </c>
     </row>
     <row r="7">
@@ -651,22 +631,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.02376446372021109</v>
+        <v>0.02376461829344208</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0296265205553936</v>
+        <v>0.02962971893563379</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02432068629951219</v>
+        <v>0.02432037875826123</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01369921696306207</v>
+        <v>0.01369907128746397</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02285272188454474</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.06492256717294e-05</v>
+        <v>0.02285344681870027</v>
       </c>
     </row>
     <row r="8">
@@ -692,22 +669,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.021911439612885</v>
+        <v>0.02191123117470539</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01634745462678247</v>
+        <v>0.01634712524978841</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02702818859366143</v>
+        <v>0.02702752330246977</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01945080009781793</v>
+        <v>0.01945002954448377</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02118447073278671</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.3937519540397847</v>
+        <v>0.02118397731786183</v>
       </c>
     </row>
     <row r="9">
@@ -733,22 +707,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.02669739231215206</v>
+        <v>0.02669798303625376</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01583985489242889</v>
+        <v>0.0158398167542927</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01820873209829021</v>
+        <v>0.0182083024145592</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01913110068591298</v>
+        <v>0.01913208862538947</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01996926999719604</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.02214787513454435</v>
+        <v>0.01996954770762378</v>
       </c>
     </row>
     <row r="10">
@@ -774,22 +745,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.02208343712792157</v>
+        <v>0.02208299128808181</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01072440051887026</v>
+        <v>0.01072450005282544</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02513482847461517</v>
+        <v>0.02513448373797668</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02075727369998038</v>
+        <v>0.0207573896635303</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01967498495534684</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.4307250750250118</v>
+        <v>0.01967484118560356</v>
       </c>
     </row>
     <row r="11">
@@ -815,22 +783,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.007723464568947081</v>
+        <v>0.007723919694683045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02166134570475935</v>
+        <v>0.02166155864575532</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02526915072373144</v>
+        <v>0.02526915185587814</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01784751519882821</v>
+        <v>0.017847094760468</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01812536904906652</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.009186068455657e-05</v>
+        <v>0.01812543123919613</v>
       </c>
     </row>
     <row r="12">
@@ -856,22 +821,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.00567318167594291</v>
+        <v>0.005673378988022412</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01283971098789788</v>
+        <v>0.01283877952829822</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02867491955482697</v>
+        <v>0.0286760604727202</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01079033307424888</v>
+        <v>0.01078997230419327</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01449453632322916</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.002010442443877672</v>
+        <v>0.01449454782330852</v>
       </c>
     </row>
     <row r="13">
@@ -897,22 +859,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.01460840453165816</v>
+        <v>0.01460919852899677</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007606309323958438</v>
+        <v>0.007605860990622978</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01681345123992567</v>
+        <v>0.01681336122155172</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01782072492281117</v>
+        <v>0.01782082966756886</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01421222250458836</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.4717416563469096</v>
+        <v>0.01421231260218508</v>
       </c>
     </row>
     <row r="14">
@@ -938,22 +897,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0104978519460761</v>
+        <v>0.01049803981125954</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009572166536461835</v>
+        <v>0.009572273912070786</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01863600079432428</v>
+        <v>0.01863602353132794</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01791524639280875</v>
+        <v>0.01791469372872047</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01415531641741774</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.2843680487927731</v>
+        <v>0.01415525774584468</v>
       </c>
     </row>
     <row r="15">
@@ -979,22 +935,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.01535822146699702</v>
+        <v>0.01535762773325908</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01499695711578805</v>
+        <v>0.01499878247488958</v>
       </c>
       <c r="H15" t="n">
-        <v>0.008058888896840153</v>
+        <v>0.008059091143852483</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0125773635300755</v>
+        <v>0.01257764560227422</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01274785775242518</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.03187492559381031</v>
+        <v>0.01274828673856884</v>
       </c>
     </row>
     <row r="16">
@@ -1020,22 +973,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.007382595018153228</v>
+        <v>0.007383000747292002</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01010588076138933</v>
+        <v>0.01010616447538837</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01585479345201598</v>
+        <v>0.01585517952640565</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01678301212267148</v>
+        <v>0.01678340368282862</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01253157033855751</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.9752154474068457</v>
+        <v>0.01253193710797866</v>
       </c>
     </row>
     <row r="17">
@@ -1061,22 +1011,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.01364614815727517</v>
+        <v>0.01364584238851387</v>
       </c>
       <c r="G17" t="n">
-        <v>0.008367323794453069</v>
+        <v>0.008368619630974725</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002176926768265727</v>
+        <v>0.002176865377430107</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01911520629777142</v>
+        <v>0.01911475156944205</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01082640125444135</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1098450416892772</v>
+        <v>0.01082651974159019</v>
       </c>
     </row>
     <row r="18">
@@ -1102,22 +1049,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.007086926237358807</v>
+        <v>0.007087416233937176</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005373704873657799</v>
+        <v>0.005373642018377567</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01741294651182846</v>
+        <v>0.01741267117006527</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0104977278076438</v>
+        <v>0.01049791158127606</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01009282635762222</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.01242847813124304</v>
+        <v>0.01009291025091402</v>
       </c>
     </row>
     <row r="19">
@@ -1143,22 +1087,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.004811965584593932</v>
+        <v>0.004811783677510156</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002963670761619438</v>
+        <v>0.002963961984565738</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02958881493685377</v>
+        <v>0.02958783694845639</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002719399695565838</v>
+        <v>0.002719551458264124</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01002096274465824</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.882694847199539e-10</v>
+        <v>0.0100207835171991</v>
       </c>
     </row>
     <row r="20">
@@ -1184,22 +1125,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.01078132938839818</v>
+        <v>0.01078223732273033</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004190615649165844</v>
+        <v>0.004190544933051542</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00869681875476095</v>
+        <v>0.008696645491579747</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01483136197183966</v>
+        <v>0.01483051646312634</v>
       </c>
       <c r="J20" t="n">
-        <v>0.009625031441041158</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1820078208924515</v>
+        <v>0.009624986052621992</v>
       </c>
     </row>
     <row r="21">
@@ -1225,22 +1163,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0108129081499852</v>
+        <v>0.01081303937157435</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005677689163307294</v>
+        <v>0.005677391295209636</v>
       </c>
       <c r="H21" t="n">
-        <v>0.009625154311059597</v>
+        <v>0.009625351981270064</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008018075779709324</v>
+        <v>0.008018102829994128</v>
       </c>
       <c r="J21" t="n">
-        <v>0.008533456851015355</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.0004187839031324429</v>
+        <v>0.008533471369512045</v>
       </c>
     </row>
     <row r="22">
@@ -1266,22 +1201,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.005416286057786459</v>
+        <v>0.005416271813979712</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008927108360921469</v>
+        <v>0.008928452757243993</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00461918251250971</v>
+        <v>0.004619114973874158</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01497546784127044</v>
+        <v>0.01497633455523086</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00848451119312202</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.1149549171910391</v>
+        <v>0.00848504352508218</v>
       </c>
     </row>
     <row r="23">
@@ -1307,22 +1239,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0213929164150725</v>
+        <v>0.02139244115702703</v>
       </c>
       <c r="G23" t="n">
-        <v>0.005048666584906348</v>
+        <v>0.005048843934604284</v>
       </c>
       <c r="H23" t="n">
-        <v>0.004351327479482661</v>
+        <v>0.004351358912318702</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002590966570526371</v>
+        <v>0.002591111834195033</v>
       </c>
       <c r="J23" t="n">
-        <v>0.008345969262496969</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.9261470990900253</v>
+        <v>0.008345938959536264</v>
       </c>
     </row>
     <row r="24">
@@ -1348,22 +1277,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.005267802705939404</v>
+        <v>0.005268087041165798</v>
       </c>
       <c r="G24" t="n">
-        <v>0.009218631783973972</v>
+        <v>0.009218659931760057</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00594105980713947</v>
+        <v>0.005941125089660749</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01257365776305952</v>
+        <v>0.0125728426160203</v>
       </c>
       <c r="J24" t="n">
-        <v>0.008250288015028091</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.02065183669472397</v>
+        <v>0.008250178669651727</v>
       </c>
     </row>
     <row r="25">
@@ -1389,22 +1315,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.004830155679412793</v>
+        <v>0.004830017913789767</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004649181055602014</v>
+        <v>0.004648891329019958</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00838177506294204</v>
+        <v>0.00838224286926415</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01343922955005866</v>
+        <v>0.01343895730737994</v>
       </c>
       <c r="J25" t="n">
-        <v>0.007825085337003877</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.02440979012233266</v>
+        <v>0.007825027354863453</v>
       </c>
     </row>
     <row r="26">
@@ -1430,22 +1353,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.01398073099829126</v>
+        <v>0.01398117558346757</v>
       </c>
       <c r="G26" t="n">
-        <v>0.008297628172017103</v>
+        <v>0.008298186966136727</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0007380218170212197</v>
+        <v>0.00073800645642944</v>
       </c>
       <c r="I26" t="n">
-        <v>0.007197467618688114</v>
+        <v>0.007197434335983454</v>
       </c>
       <c r="J26" t="n">
-        <v>0.007553462151504426</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.0024798413821293</v>
+        <v>0.007553700835504296</v>
       </c>
     </row>
     <row r="27">
@@ -1471,22 +1391,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.009609883187001055</v>
+        <v>0.009610004940244086</v>
       </c>
       <c r="G27" t="n">
-        <v>0.007583390167922198</v>
+        <v>0.007583144963477579</v>
       </c>
       <c r="H27" t="n">
-        <v>0.004421400067514006</v>
+        <v>0.004421246508473724</v>
       </c>
       <c r="I27" t="n">
-        <v>0.006620091912725186</v>
+        <v>0.006620191626770659</v>
       </c>
       <c r="J27" t="n">
-        <v>0.007058691333790611</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.003735754143924774</v>
+        <v>0.007058647009741513</v>
       </c>
     </row>
     <row r="28">
@@ -1512,22 +1429,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.003885752409473621</v>
+        <v>0.003885470844501195</v>
       </c>
       <c r="G28" t="n">
-        <v>0.009254657005282217</v>
+        <v>0.009253827005265624</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0028023227188899</v>
+        <v>0.002801854932537422</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01196984469100426</v>
+        <v>0.01196979165159606</v>
       </c>
       <c r="J28" t="n">
-        <v>0.006978144206162501</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.5223748697670274</v>
+        <v>0.006977736108475074</v>
       </c>
     </row>
     <row r="29">
@@ -1553,22 +1467,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.005048982895531774</v>
+        <v>0.005049227019816481</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004131339419377847</v>
+        <v>0.004131375944687195</v>
       </c>
       <c r="H29" t="n">
-        <v>0.004534770721531409</v>
+        <v>0.004535216174555236</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01000789204768611</v>
+        <v>0.0100075682810574</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005930746271031786</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.1872224713774333</v>
+        <v>0.005930846855029078</v>
       </c>
     </row>
     <row r="30">
@@ -1594,22 +1505,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.002674723830170676</v>
+        <v>0.002674692193730183</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002499213743709062</v>
+        <v>0.00249910932278009</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00687442843574355</v>
+        <v>0.006874504288329103</v>
       </c>
       <c r="I30" t="n">
-        <v>0.009449015511125905</v>
+        <v>0.009449193588264813</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005374345380187299</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.1139046246398245</v>
+        <v>0.005374374848276047</v>
       </c>
     </row>
     <row r="31">
@@ -1635,22 +1543,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.006866688410442182</v>
+        <v>0.006866656300450932</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007289805330365101</v>
+        <v>0.007289820644834812</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002418420607364962</v>
+        <v>0.002418414692880252</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00456855890323021</v>
+        <v>0.004568284030212713</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005285868312850613</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.01233988105264924</v>
+        <v>0.005285793917094677</v>
       </c>
     </row>
     <row r="32">
@@ -1676,22 +1581,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.008251517084273814</v>
+        <v>0.008251826832323745</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002450494945478033</v>
+        <v>0.00245046136454771</v>
       </c>
       <c r="H32" t="n">
-        <v>0.004346595659128189</v>
+        <v>0.004346322246178406</v>
       </c>
       <c r="I32" t="n">
-        <v>0.004885288021872138</v>
+        <v>0.004885431550396737</v>
       </c>
       <c r="J32" t="n">
-        <v>0.004983473927688043</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.01974787180991382</v>
+        <v>0.00498351049836165</v>
       </c>
     </row>
     <row r="33">
@@ -1717,22 +1619,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.009438965884994866</v>
+        <v>0.00944042744839458</v>
       </c>
       <c r="G33" t="n">
-        <v>0.002123972644987908</v>
+        <v>0.002123957106970676</v>
       </c>
       <c r="H33" t="n">
-        <v>0.003141081838983731</v>
+        <v>0.003140874868592916</v>
       </c>
       <c r="I33" t="n">
-        <v>0.004967974923557357</v>
+        <v>0.004967590895138047</v>
       </c>
       <c r="J33" t="n">
-        <v>0.004917998823130966</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.7863698899624423</v>
+        <v>0.004918212579774055</v>
       </c>
     </row>
     <row r="34">
@@ -1758,22 +1657,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.002957014674654394</v>
+        <v>0.002957043228744888</v>
       </c>
       <c r="G34" t="n">
-        <v>0.005031496078036216</v>
+        <v>0.005031311962418752</v>
       </c>
       <c r="H34" t="n">
-        <v>0.006684124698293234</v>
+        <v>0.00668445738099015</v>
       </c>
       <c r="I34" t="n">
-        <v>0.002664558642448871</v>
+        <v>0.002664632214907705</v>
       </c>
       <c r="J34" t="n">
-        <v>0.004334298523358179</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1.891623462909993e-07</v>
+        <v>0.004334361196765374</v>
       </c>
     </row>
     <row r="35">
@@ -1799,22 +1695,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.002490512851975577</v>
+        <v>0.002490354814423619</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0006595746476602376</v>
+        <v>0.0006595468342989659</v>
       </c>
       <c r="H35" t="n">
-        <v>0.009961678152418147</v>
+        <v>0.009961878183895349</v>
       </c>
       <c r="I35" t="n">
-        <v>0.003515734813888501</v>
+        <v>0.003515823243004126</v>
       </c>
       <c r="J35" t="n">
-        <v>0.004156875116485615</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.4379571750393336</v>
+        <v>0.004156900768905515</v>
       </c>
     </row>
     <row r="36">
@@ -1840,22 +1733,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.002720345436362194</v>
+        <v>0.002720157028937527</v>
       </c>
       <c r="G36" t="n">
-        <v>0.001934929838464749</v>
+        <v>0.001934849931652174</v>
       </c>
       <c r="H36" t="n">
-        <v>0.007632961636391399</v>
+        <v>0.00763272233704152</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00361907272029161</v>
+        <v>0.003619179537436593</v>
       </c>
       <c r="J36" t="n">
-        <v>0.003976827407877487</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.5868348019590022</v>
+        <v>0.003976727208766954</v>
       </c>
     </row>
     <row r="37">
@@ -1881,22 +1771,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.006817747583675642</v>
+        <v>0.006817705890842487</v>
       </c>
       <c r="G37" t="n">
-        <v>0.002688451005064003</v>
+        <v>0.002688443094462911</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001459339563066632</v>
+        <v>0.001459352951645969</v>
       </c>
       <c r="I37" t="n">
-        <v>0.004332054853603685</v>
+        <v>0.004332275220281546</v>
       </c>
       <c r="J37" t="n">
-        <v>0.003824398251352491</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.8056269085708099</v>
+        <v>0.003824444289308228</v>
       </c>
     </row>
     <row r="38">
@@ -1922,22 +1809,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.004615036540126794</v>
+        <v>0.004614924585970298</v>
       </c>
       <c r="G38" t="n">
-        <v>0.005114149978556214</v>
+        <v>0.005114431766895191</v>
       </c>
       <c r="H38" t="n">
-        <v>0.001938264984815034</v>
+        <v>0.001938349001408538</v>
       </c>
       <c r="I38" t="n">
-        <v>0.002461353490795716</v>
+        <v>0.002461419098920235</v>
       </c>
       <c r="J38" t="n">
-        <v>0.00353220124857344</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.7092101461783789</v>
+        <v>0.003532281113298565</v>
       </c>
     </row>
     <row r="39">
@@ -1963,22 +1847,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.001930904014541111</v>
+        <v>0.001930988141346313</v>
       </c>
       <c r="G39" t="n">
-        <v>0.004787296613604275</v>
+        <v>0.004788093572942666</v>
       </c>
       <c r="H39" t="n">
-        <v>0.005386311013300013</v>
+        <v>0.005386333907797423</v>
       </c>
       <c r="I39" t="n">
-        <v>0.001747017079953552</v>
+        <v>0.001747042300365275</v>
       </c>
       <c r="J39" t="n">
-        <v>0.003462882180349738</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.06110782007125715</v>
+        <v>0.003463114480612919</v>
       </c>
     </row>
     <row r="40">
@@ -2004,22 +1885,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.0024182762673405</v>
+        <v>0.00241852246652079</v>
       </c>
       <c r="G40" t="n">
-        <v>0.001791031611200768</v>
+        <v>0.001791169072756462</v>
       </c>
       <c r="H40" t="n">
-        <v>0.002336923279594174</v>
+        <v>0.002336847754587896</v>
       </c>
       <c r="I40" t="n">
-        <v>0.006362260847079435</v>
+        <v>0.006362252651015836</v>
       </c>
       <c r="J40" t="n">
-        <v>0.003227123001303719</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.179763923981003e-07</v>
+        <v>0.003227197986220246</v>
       </c>
     </row>
     <row r="41">
@@ -2045,22 +1923,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.001645598075630922</v>
+        <v>0.001645626899474542</v>
       </c>
       <c r="G41" t="n">
-        <v>0.003987083553953917</v>
+        <v>0.003987162011816389</v>
       </c>
       <c r="H41" t="n">
-        <v>0.004491696076409108</v>
+        <v>0.004491638503838051</v>
       </c>
       <c r="I41" t="n">
-        <v>0.002714576249572433</v>
+        <v>0.002714345140761146</v>
       </c>
       <c r="J41" t="n">
-        <v>0.003209738488891595</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.03165362485147714</v>
+        <v>0.003209693138972532</v>
       </c>
     </row>
     <row r="42">
@@ -2086,22 +1961,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.003585286233310395</v>
+        <v>0.003585492242682358</v>
       </c>
       <c r="G42" t="n">
-        <v>0.002300017386264661</v>
+        <v>0.002299974566397344</v>
       </c>
       <c r="H42" t="n">
-        <v>0.001674068920718107</v>
+        <v>0.001674021928457862</v>
       </c>
       <c r="I42" t="n">
-        <v>0.004831280141191872</v>
+        <v>0.004831207944975118</v>
       </c>
       <c r="J42" t="n">
-        <v>0.003097663170371258</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.4631997618784479</v>
+        <v>0.00309767417062817</v>
       </c>
     </row>
     <row r="43">
@@ -2127,22 +1999,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.003624685294951002</v>
+        <v>0.003624914738289771</v>
       </c>
       <c r="G43" t="n">
-        <v>0.001114380552982279</v>
+        <v>0.001114362622431342</v>
       </c>
       <c r="H43" t="n">
-        <v>0.003226371762421406</v>
+        <v>0.003226454508952851</v>
       </c>
       <c r="I43" t="n">
-        <v>0.003726490534177743</v>
+        <v>0.003726423454171154</v>
       </c>
       <c r="J43" t="n">
-        <v>0.002922982036133108</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.01011163036725153</v>
+        <v>0.00292303883096128</v>
       </c>
     </row>
     <row r="44">
@@ -2168,22 +2037,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.002535847592887172</v>
+        <v>0.002535776931685979</v>
       </c>
       <c r="G44" t="n">
-        <v>0.001227427602282116</v>
+        <v>0.001227475776527747</v>
       </c>
       <c r="H44" t="n">
-        <v>0.003829774040211482</v>
+        <v>0.003829761607352647</v>
       </c>
       <c r="I44" t="n">
-        <v>0.003849712103364196</v>
+        <v>0.00384973087523521</v>
       </c>
       <c r="J44" t="n">
-        <v>0.002860690334686241</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3463254798815105</v>
+        <v>0.002860686297700396</v>
       </c>
     </row>
     <row r="45">
@@ -2209,22 +2075,19 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.002673531930424405</v>
+        <v>0.002673616657078748</v>
       </c>
       <c r="G45" t="n">
-        <v>0.001598087881666353</v>
+        <v>0.00159801782497064</v>
       </c>
       <c r="H45" t="n">
-        <v>0.003564439265272677</v>
+        <v>0.003564372127368756</v>
       </c>
       <c r="I45" t="n">
-        <v>0.003512667754435836</v>
+        <v>0.003512619219893178</v>
       </c>
       <c r="J45" t="n">
-        <v>0.002837181707949818</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4.556106503428825e-06</v>
+        <v>0.002837156457327831</v>
       </c>
     </row>
     <row r="46">
@@ -2250,22 +2113,19 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.001012966055226719</v>
+        <v>0.001012954645371811</v>
       </c>
       <c r="G46" t="n">
-        <v>0.001845221255930538</v>
+        <v>0.001845081086184934</v>
       </c>
       <c r="H46" t="n">
-        <v>0.006043367235532393</v>
+        <v>0.006043435472215978</v>
       </c>
       <c r="I46" t="n">
-        <v>0.001749742138264899</v>
+        <v>0.001749783008422086</v>
       </c>
       <c r="J46" t="n">
-        <v>0.002662824171238638</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.0001346755719012521</v>
+        <v>0.002662813553048702</v>
       </c>
     </row>
     <row r="47">
@@ -2291,22 +2151,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.003580377490634309</v>
+        <v>0.003580776178319227</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0008851772015738787</v>
+        <v>0.0008851797968108925</v>
       </c>
       <c r="H47" t="n">
-        <v>0.001511189432143845</v>
+        <v>0.00151114748533475</v>
       </c>
       <c r="I47" t="n">
-        <v>0.004542405356409774</v>
+        <v>0.004542517925030719</v>
       </c>
       <c r="J47" t="n">
-        <v>0.002629787370190452</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.2124663779312072</v>
+        <v>0.002629905346373897</v>
       </c>
     </row>
     <row r="48">
@@ -2332,22 +2189,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.001275282207665229</v>
+        <v>0.001275324468556799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0004809084115205183</v>
+        <v>0.0004808839082618327</v>
       </c>
       <c r="H48" t="n">
-        <v>0.004556628442839645</v>
+        <v>0.00455674433900707</v>
       </c>
       <c r="I48" t="n">
-        <v>0.003821062510130069</v>
+        <v>0.003820959713507224</v>
       </c>
       <c r="J48" t="n">
-        <v>0.002533470393038866</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.08461417986701485</v>
+        <v>0.002533478107333231</v>
       </c>
     </row>
     <row r="49">
@@ -2373,22 +2227,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.004531869260085671</v>
+        <v>0.004531396395149954</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00123056074053133</v>
+        <v>0.001230572985007868</v>
       </c>
       <c r="H49" t="n">
-        <v>0.002096836220630959</v>
+        <v>0.002096821222479171</v>
       </c>
       <c r="I49" t="n">
-        <v>0.001809281622065875</v>
+        <v>0.001809379789671729</v>
       </c>
       <c r="J49" t="n">
-        <v>0.002417136960828459</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.5437730003628061</v>
+        <v>0.002417042598077181</v>
       </c>
     </row>
     <row r="50">
@@ -2414,22 +2265,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.002487926511525188</v>
+        <v>0.002487921335541798</v>
       </c>
       <c r="G50" t="n">
-        <v>0.001705661607047997</v>
+        <v>0.001705624197590666</v>
       </c>
       <c r="H50" t="n">
-        <v>0.00256537745446814</v>
+        <v>0.002565175529591656</v>
       </c>
       <c r="I50" t="n">
-        <v>0.002900053017239351</v>
+        <v>0.002900190108917</v>
       </c>
       <c r="J50" t="n">
-        <v>0.002414754647570169</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.01453918601103526</v>
+        <v>0.00241472779291028</v>
       </c>
     </row>
     <row r="51">
@@ -2455,22 +2303,19 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.00285510248268302</v>
+        <v>0.002855090228099717</v>
       </c>
       <c r="G51" t="n">
-        <v>0.001195545366684303</v>
+        <v>0.001195538416259984</v>
       </c>
       <c r="H51" t="n">
-        <v>0.002289814830221343</v>
+        <v>0.002289780147947321</v>
       </c>
       <c r="I51" t="n">
-        <v>0.002518752289727976</v>
+        <v>0.002518708678998238</v>
       </c>
       <c r="J51" t="n">
-        <v>0.002214803742329161</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.4713157032390254</v>
+        <v>0.002214779367826315</v>
       </c>
     </row>
     <row r="52">
@@ -2496,22 +2341,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.001435072055783723</v>
+        <v>0.00143508819522154</v>
       </c>
       <c r="G52" t="n">
-        <v>0.001172371767307245</v>
+        <v>0.001172422194959055</v>
       </c>
       <c r="H52" t="n">
-        <v>0.001466334962489268</v>
+        <v>0.001466308973937766</v>
       </c>
       <c r="I52" t="n">
-        <v>0.004596277949499339</v>
+        <v>0.004596456075964516</v>
       </c>
       <c r="J52" t="n">
-        <v>0.002167514183769893</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1972037176541287</v>
+        <v>0.002167568860020719</v>
       </c>
     </row>
     <row r="53">
@@ -2537,22 +2379,19 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.001737025229227161</v>
+        <v>0.00173706391285121</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0009153391404595733</v>
+        <v>0.000915372585979212</v>
       </c>
       <c r="H53" t="n">
-        <v>0.002883989751646894</v>
+        <v>0.002884004967952426</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00312958378123593</v>
+        <v>0.00312964181026069</v>
       </c>
       <c r="J53" t="n">
-        <v>0.002166484475642389</v>
-      </c>
-      <c r="K53" t="n">
-        <v>6.698394275122051e-08</v>
+        <v>0.002166520819260885</v>
       </c>
     </row>
     <row r="54">
@@ -2578,22 +2417,19 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.001910257965397088</v>
+        <v>0.001910304020637479</v>
       </c>
       <c r="G54" t="n">
-        <v>0.001093598589522602</v>
+        <v>0.001093592358575395</v>
       </c>
       <c r="H54" t="n">
-        <v>0.003669020849186416</v>
+        <v>0.003669043249813283</v>
       </c>
       <c r="I54" t="n">
-        <v>0.001891380588774982</v>
+        <v>0.001891325017205107</v>
       </c>
       <c r="J54" t="n">
-        <v>0.002141064498220272</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.005229708636146257</v>
+        <v>0.002141066161557816</v>
       </c>
     </row>
     <row r="55">
@@ -2619,22 +2455,19 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.002853637018953997</v>
+        <v>0.002853462020576125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.001987826600215436</v>
+        <v>0.001988129922548414</v>
       </c>
       <c r="H55" t="n">
-        <v>0.001518392855626896</v>
+        <v>0.001518410163951736</v>
       </c>
       <c r="I55" t="n">
-        <v>0.002163998802555107</v>
+        <v>0.002163854938059382</v>
       </c>
       <c r="J55" t="n">
-        <v>0.002130963819337859</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.2836728986214893</v>
+        <v>0.002130964261283914</v>
       </c>
     </row>
     <row r="56">
@@ -2660,22 +2493,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.002202608990391768</v>
+        <v>0.00220257288243322</v>
       </c>
       <c r="G56" t="n">
-        <v>0.00159436140747706</v>
+        <v>0.001594482519617968</v>
       </c>
       <c r="H56" t="n">
-        <v>0.001545632026577316</v>
+        <v>0.001545676406439609</v>
       </c>
       <c r="I56" t="n">
-        <v>0.003094007053134318</v>
+        <v>0.003093941576667049</v>
       </c>
       <c r="J56" t="n">
-        <v>0.002109152369395116</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.8998915023385108</v>
+        <v>0.002109168346289461</v>
       </c>
     </row>
     <row r="57">
@@ -2701,22 +2531,19 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.001947509399863706</v>
+        <v>0.001947528315967011</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0006838099379872113</v>
+        <v>0.0006838398439509386</v>
       </c>
       <c r="H57" t="n">
-        <v>0.002901726885585145</v>
+        <v>0.00290176202133783</v>
       </c>
       <c r="I57" t="n">
-        <v>0.002622668533359685</v>
+        <v>0.002622612638914964</v>
       </c>
       <c r="J57" t="n">
-        <v>0.002038928689198937</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1237558504550177</v>
+        <v>0.002038935705042686</v>
       </c>
     </row>
     <row r="58">
@@ -2742,22 +2569,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.001932586241750718</v>
+        <v>0.001932483299175695</v>
       </c>
       <c r="G58" t="n">
-        <v>0.001355330265582956</v>
+        <v>0.001355150816953173</v>
       </c>
       <c r="H58" t="n">
-        <v>0.002159364380211423</v>
+        <v>0.002159376109910134</v>
       </c>
       <c r="I58" t="n">
-        <v>0.00241472068401903</v>
+        <v>0.002414664302435604</v>
       </c>
       <c r="J58" t="n">
-        <v>0.001965500392891032</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.8389683173690465</v>
+        <v>0.001965418632118652</v>
       </c>
     </row>
     <row r="59">
@@ -2783,22 +2607,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.00192580440756608</v>
+        <v>0.001925770269235058</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0009927802237151666</v>
+        <v>0.0009928406907707757</v>
       </c>
       <c r="H59" t="n">
-        <v>0.002702585659391294</v>
+        <v>0.00270262712579095</v>
       </c>
       <c r="I59" t="n">
-        <v>0.002175894113681009</v>
+        <v>0.002175903009890751</v>
       </c>
       <c r="J59" t="n">
-        <v>0.001949266101088387</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.0001294838594421907</v>
+        <v>0.001949285273921884</v>
       </c>
     </row>
     <row r="60">
@@ -2824,22 +2645,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.001642847148911253</v>
+        <v>0.001642960568277818</v>
       </c>
       <c r="G60" t="n">
-        <v>0.001275746135574332</v>
+        <v>0.00127566183905805</v>
       </c>
       <c r="H60" t="n">
-        <v>0.003629436089518105</v>
+        <v>0.003629391638003682</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0009311821172232551</v>
+        <v>0.0009312205643065674</v>
       </c>
       <c r="J60" t="n">
-        <v>0.001869802872806736</v>
-      </c>
-      <c r="K60" t="n">
-        <v>8.637660835025258e-06</v>
+        <v>0.00186980865241153</v>
       </c>
     </row>
     <row r="61">
@@ -2865,22 +2683,19 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.002416629046855476</v>
+        <v>0.002416603851556239</v>
       </c>
       <c r="G61" t="n">
-        <v>0.001446220282518053</v>
+        <v>0.001446243014511653</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0009283597132441917</v>
+        <v>0.000928332318548855</v>
       </c>
       <c r="I61" t="n">
-        <v>0.00245651712164093</v>
+        <v>0.002456907414982338</v>
       </c>
       <c r="J61" t="n">
-        <v>0.001811931541064662</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.1035466985296902</v>
+        <v>0.001812021649899771</v>
       </c>
     </row>
     <row r="62">
@@ -2906,22 +2721,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.001622689512435612</v>
+        <v>0.001622708000852693</v>
       </c>
       <c r="G62" t="n">
-        <v>0.001145898008067415</v>
+        <v>0.00114597585945481</v>
       </c>
       <c r="H62" t="n">
-        <v>0.002912214468625746</v>
+        <v>0.002912144657707659</v>
       </c>
       <c r="I62" t="n">
-        <v>0.001552547608086748</v>
+        <v>0.001552513213066471</v>
       </c>
       <c r="J62" t="n">
-        <v>0.00180833739930388</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.169725846393445</v>
+        <v>0.001808335432770408</v>
       </c>
     </row>
     <row r="63">
@@ -2947,22 +2759,19 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.001275118886202083</v>
+        <v>0.001275095049220683</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0005057945337169033</v>
+        <v>0.000505774150287909</v>
       </c>
       <c r="H63" t="n">
-        <v>0.003349771650035837</v>
+        <v>0.003349846513541824</v>
       </c>
       <c r="I63" t="n">
-        <v>0.001783228084646044</v>
+        <v>0.001783328698386318</v>
       </c>
       <c r="J63" t="n">
-        <v>0.001728478288650217</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.9277651649500677</v>
+        <v>0.001728511102859183</v>
       </c>
     </row>
     <row r="64">
@@ -2988,22 +2797,19 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.001235045065691069</v>
+        <v>0.001235047312126318</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0008466722161227475</v>
+        <v>0.0008466709126985272</v>
       </c>
       <c r="H64" t="n">
-        <v>0.00282437800625238</v>
+        <v>0.002824332501962219</v>
       </c>
       <c r="I64" t="n">
-        <v>0.001731381746387579</v>
+        <v>0.001731408017474032</v>
       </c>
       <c r="J64" t="n">
-        <v>0.001659369258613444</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.0003110339106305105</v>
+        <v>0.001659364686065274</v>
       </c>
     </row>
     <row r="65">
@@ -3029,22 +2835,19 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.002024567677440363</v>
+        <v>0.002024335588488385</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0007148985714827587</v>
+        <v>0.0007149210019826147</v>
       </c>
       <c r="H65" t="n">
-        <v>0.001754990259185095</v>
+        <v>0.001755085595619061</v>
       </c>
       <c r="I65" t="n">
-        <v>0.001265256091977361</v>
+        <v>0.001265248678895822</v>
       </c>
       <c r="J65" t="n">
-        <v>0.001439928150021394</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.001789837418262889</v>
+        <v>0.00143989771624647</v>
       </c>
     </row>
     <row r="66">
@@ -3070,22 +2873,19 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.002299191588416604</v>
+        <v>0.002299138265581984</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0009865959171400499</v>
+        <v>0.0009866426613639721</v>
       </c>
       <c r="H66" t="n">
-        <v>0.001123916092159942</v>
+        <v>0.001123935721981757</v>
       </c>
       <c r="I66" t="n">
-        <v>0.001285934077630738</v>
+        <v>0.001285987770489853</v>
       </c>
       <c r="J66" t="n">
-        <v>0.001423909418836833</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.1608746367007626</v>
+        <v>0.001423926104854392</v>
       </c>
     </row>
     <row r="67">
@@ -3111,22 +2911,19 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.0009595493725655895</v>
+        <v>0.0009595336918511721</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0007911932994817391</v>
+        <v>0.0007912290857955518</v>
       </c>
       <c r="H67" t="n">
-        <v>0.00145203793554166</v>
+        <v>0.001452101637610636</v>
       </c>
       <c r="I67" t="n">
-        <v>0.001889052615838124</v>
+        <v>0.001889239304858216</v>
       </c>
       <c r="J67" t="n">
-        <v>0.001272958305856778</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.007120138838020023</v>
+        <v>0.001273025930028894</v>
       </c>
     </row>
     <row r="68">
@@ -3152,22 +2949,19 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.001271957678777228</v>
+        <v>0.001271971224877803</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00111750169665155</v>
+        <v>0.001117519276618791</v>
       </c>
       <c r="H68" t="n">
-        <v>0.001229198652021314</v>
+        <v>0.001229194393692378</v>
       </c>
       <c r="I68" t="n">
-        <v>0.001419799569814827</v>
+        <v>0.001419795908674684</v>
       </c>
       <c r="J68" t="n">
-        <v>0.00125961439931623</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0006146300597960236</v>
+        <v>0.001259620200965914</v>
       </c>
     </row>
     <row r="69">
@@ -3193,22 +2987,19 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.001457783766278393</v>
+        <v>0.001457806924303457</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0005675552794943259</v>
+        <v>0.000567558456124957</v>
       </c>
       <c r="H69" t="n">
-        <v>0.001220395531972109</v>
+        <v>0.001220421161505872</v>
       </c>
       <c r="I69" t="n">
-        <v>0.001476658112469914</v>
+        <v>0.001476712272965258</v>
       </c>
       <c r="J69" t="n">
-        <v>0.001180598172553685</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.009503794384702148</v>
+        <v>0.001180624703724886</v>
       </c>
     </row>
     <row r="70">
@@ -3234,22 +3025,19 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.001391410546091341</v>
+        <v>0.001391347945048631</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0009706922592169461</v>
+        <v>0.0009706276292894712</v>
       </c>
       <c r="H70" t="n">
-        <v>0.001072107749439399</v>
+        <v>0.001072138562521173</v>
       </c>
       <c r="I70" t="n">
-        <v>0.001271890849200784</v>
+        <v>0.001271893374927083</v>
       </c>
       <c r="J70" t="n">
-        <v>0.001176525350987118</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.6096492399496339</v>
+        <v>0.001176501877946589</v>
       </c>
     </row>
     <row r="71">
@@ -3275,22 +3063,19 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.001499122759411264</v>
+        <v>0.00149929704927539</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0003368357464310377</v>
+        <v>0.0003368200916961635</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0014369029007969</v>
+        <v>0.001436855591300987</v>
       </c>
       <c r="I71" t="n">
-        <v>0.001118797455104825</v>
+        <v>0.001118833547050261</v>
       </c>
       <c r="J71" t="n">
-        <v>0.001097914715436007</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.7590734250748037</v>
+        <v>0.0010979515698307</v>
       </c>
     </row>
     <row r="72">
@@ -3316,22 +3101,19 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.0008395276219771372</v>
+        <v>0.0008395416599994062</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0005780594070045816</v>
+        <v>0.0005780744096239136</v>
       </c>
       <c r="H72" t="n">
-        <v>0.001665261396908647</v>
+        <v>0.001665302382851762</v>
       </c>
       <c r="I72" t="n">
-        <v>0.001268132033144069</v>
+        <v>0.001268160454618789</v>
       </c>
       <c r="J72" t="n">
-        <v>0.001087745114758609</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.4185919493104693</v>
+        <v>0.001087769726773468</v>
       </c>
     </row>
     <row r="73">
@@ -3357,22 +3139,19 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.001017865648240201</v>
+        <v>0.001017826477872174</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0008041542817769269</v>
+        <v>0.0008041482477859588</v>
       </c>
       <c r="H73" t="n">
-        <v>0.001308561163360678</v>
+        <v>0.001308573907048678</v>
       </c>
       <c r="I73" t="n">
-        <v>0.001197817120031909</v>
+        <v>0.00119783390124559</v>
       </c>
       <c r="J73" t="n">
-        <v>0.001082099553352429</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1759621066768299</v>
+        <v>0.0010820956334881</v>
       </c>
     </row>
     <row r="74">
@@ -3398,22 +3177,19 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.0009010230002080492</v>
+        <v>0.0009010445774058089</v>
       </c>
       <c r="G74" t="n">
-        <v>0.001649279915353522</v>
+        <v>0.001649193769158196</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0006094305551941539</v>
+        <v>0.0006094449334823469</v>
       </c>
       <c r="I74" t="n">
-        <v>0.001167896430197194</v>
+        <v>0.001167925474740095</v>
       </c>
       <c r="J74" t="n">
-        <v>0.00108190747523823</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.5213240201274751</v>
+        <v>0.001081902188696612</v>
       </c>
     </row>
     <row r="75">
@@ -3439,22 +3215,19 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.00117616584190785</v>
+        <v>0.001176159654005492</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0006611700623536186</v>
+        <v>0.0006611543636106332</v>
       </c>
       <c r="H75" t="n">
-        <v>0.001268478133034886</v>
+        <v>0.001268435278249488</v>
       </c>
       <c r="I75" t="n">
-        <v>0.001158062952731365</v>
+        <v>0.00115808222249841</v>
       </c>
       <c r="J75" t="n">
-        <v>0.00106596924750693</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.03569349353302168</v>
+        <v>0.001065957879591006</v>
       </c>
     </row>
     <row r="76">
@@ -3480,22 +3253,19 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.001271907274812644</v>
+        <v>0.001271880521186822</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0004948484989003158</v>
+        <v>0.0004948521857614275</v>
       </c>
       <c r="H76" t="n">
-        <v>0.000923970306835144</v>
+        <v>0.0009239838790986446</v>
       </c>
       <c r="I76" t="n">
-        <v>0.001114659357688524</v>
+        <v>0.001114663612238824</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0009513463595591568</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1.275700928383181e-10</v>
+        <v>0.0009513450495714296</v>
       </c>
     </row>
     <row r="77">
@@ -3521,22 +3291,19 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.001282865500261524</v>
+        <v>0.001282810900116097</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0003578537804932191</v>
+        <v>0.0003578582084046511</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0009106825306663127</v>
+        <v>0.0009106708477914458</v>
       </c>
       <c r="I77" t="n">
-        <v>0.00118084259073226</v>
+        <v>0.001180806673514648</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0009330611005383291</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.9062376172843439</v>
+        <v>0.0009330366574567103</v>
       </c>
     </row>
     <row r="78">
@@ -3562,22 +3329,19 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.001487588939171159</v>
+        <v>0.001487612650095716</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0006162910073247636</v>
+        <v>0.0006163060704645769</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0006348765668890335</v>
+        <v>0.0006348681796757999</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0008704700614447258</v>
+        <v>0.0008704768247224467</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0009023066437074203</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.178426420314157</v>
+        <v>0.000902315931239635</v>
       </c>
     </row>
     <row r="79">
@@ -3603,22 +3367,19 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.001352133714642281</v>
+        <v>0.001352120193721245</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0005732564930815343</v>
+        <v>0.0005732656579612724</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0008926540662384391</v>
+        <v>0.0008926478193505038</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0007816870845084596</v>
+        <v>0.0007816704625734765</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0008999328396176785</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.5194001182762076</v>
+        <v>0.0008999260334016244</v>
       </c>
     </row>
     <row r="80">
@@ -3644,22 +3405,19 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0008464191125896476</v>
+        <v>0.0008464229197730389</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0004835153988407716</v>
+        <v>0.0004835477306671678</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0009418881553840967</v>
+        <v>0.0009418889460783201</v>
       </c>
       <c r="I80" t="n">
-        <v>0.000889346305627794</v>
+        <v>0.0008893164734822274</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0007902922431105775</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.2862048450192993</v>
+        <v>0.0007902940175001886</v>
       </c>
     </row>
     <row r="81">
@@ -3685,22 +3443,19 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0009770518768062839</v>
+        <v>0.0009770948000283133</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0006094034620367335</v>
+        <v>0.000609379103560198</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0005015714121573733</v>
+        <v>0.0005015997024634532</v>
       </c>
       <c r="I81" t="n">
-        <v>0.001043241928616373</v>
+        <v>0.001043200400592159</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0007828171699041911</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1.590061229665579e-15</v>
+        <v>0.0007828185016610311</v>
       </c>
     </row>
     <row r="82">
@@ -3726,22 +3481,19 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.0007711108859900798</v>
+        <v>0.0007711051511059744</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0003777715619207411</v>
+        <v>0.0003777863367736181</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0008632467943306746</v>
+        <v>0.0008632543191824237</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0006238298589393994</v>
+        <v>0.0006238535225159806</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0006589897752952238</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.6387576944522118</v>
+        <v>0.0006589998323944992</v>
       </c>
     </row>
     <row r="83">
@@ -3767,22 +3519,19 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0007757804906531838</v>
+        <v>0.0007757209787892077</v>
       </c>
       <c r="G83" t="n">
-        <v>0.000265306071432846</v>
+        <v>0.0002652997855634352</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0008763182580008441</v>
+        <v>0.0008763514535784909</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0006992158774343435</v>
+        <v>0.0006992587877426205</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0006541551743803043</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.848923801635772</v>
+        <v>0.0006541577514184386</v>
       </c>
     </row>
     <row r="84">
@@ -3808,22 +3557,19 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0005941069118085778</v>
+        <v>0.00059410384645253</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0002409328747369143</v>
+        <v>0.0002409445122030387</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0006717091187249187</v>
+        <v>0.0006716593542177468</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0009973368647959602</v>
+        <v>0.0009973524750497469</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0006260214425165927</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.3125116092997299</v>
+        <v>0.0006260150469807656</v>
       </c>
     </row>
     <row r="85">
@@ -3849,22 +3595,19 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.0006220397438639098</v>
+        <v>0.000622054709107872</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0002654722649817005</v>
+        <v>0.0002654866396395477</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0005195319100529193</v>
+        <v>0.0005195233163826287</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0009852914387584752</v>
+        <v>0.0009852812190624721</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0005980838394142511</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.2659211424924316</v>
+        <v>0.00059808647104813</v>
       </c>
     </row>
     <row r="86">
@@ -3890,22 +3633,19 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.0007176851598271494</v>
+        <v>0.0007176929402054172</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0004288374016340299</v>
+        <v>0.0004288489108618335</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0005828844064009293</v>
+        <v>0.0005828805843774998</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0005877264005019689</v>
+        <v>0.0005877576825013316</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0005792833420910193</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.0229549106379376</v>
+        <v>0.0005792950294865205</v>
       </c>
     </row>
     <row r="87">
@@ -3931,22 +3671,19 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0007131449658883075</v>
+        <v>0.0007131414688417582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0002460104785459542</v>
+        <v>0.0002460019644201895</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0005244934924135706</v>
+        <v>0.0005245102807523346</v>
       </c>
       <c r="I87" t="n">
-        <v>0.000439902251136331</v>
+        <v>0.0004398811250482012</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0004808877969960408</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.5677009819503578</v>
+        <v>0.0004808837097656209</v>
       </c>
     </row>
     <row r="88">
@@ -3972,22 +3709,19 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.000575764484141116</v>
+        <v>0.000575774167208414</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0001290113916584442</v>
+        <v>0.000129009718459861</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0004026139319752584</v>
+        <v>0.0004026188313542696</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0005099702838778618</v>
+        <v>0.0005099820649456882</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0004043400229131701</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.0002439192179918831</v>
+        <v>0.0004043461954920583</v>
       </c>
     </row>
     <row r="89">
@@ -4013,22 +3747,19 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.0002962819051517895</v>
+        <v>0.000296284262568803</v>
       </c>
       <c r="G89" t="n">
-        <v>0.000179196727299724</v>
+        <v>0.0001791900701739127</v>
       </c>
       <c r="H89" t="n">
-        <v>0.000346611039106222</v>
+        <v>0.0003466089848045224</v>
       </c>
       <c r="I89" t="n">
-        <v>0.0005914035320302319</v>
+        <v>0.0005914276516282427</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0003533733008969919</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.5144493967768502</v>
+        <v>0.0003533777422938702</v>
       </c>
     </row>
   </sheetData>

--- a/paper/03_COVID-19/saved_model/feature_importance.xlsx
+++ b/paper/03_COVID-19/saved_model/feature_importance.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,6 +417,11 @@
           <t>average_importance</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>mannwhitneyu_p-value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -441,19 +446,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.05689814674206825</v>
+        <v>2.539822632142404</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04599650171972743</v>
+        <v>2.249583860145888</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05102838577975951</v>
+        <v>2.119307905894486</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0604216698356802</v>
+        <v>2.411187515544504</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05358617601930885</v>
+        <v>2.329975478431821</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.004794722606996021</v>
       </c>
     </row>
     <row r="3">
@@ -479,19 +487,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.02138234218744304</v>
+        <v>1.681686174064955</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0592331448136934</v>
+        <v>2.430702856667598</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06974952987557322</v>
+        <v>2.360200389718505</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05626784513413923</v>
+        <v>2.351310328442359</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05165821550271223</v>
+        <v>2.205974937223354</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.905949155397355e-05</v>
       </c>
     </row>
     <row r="4">
@@ -517,19 +528,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.03002960194614799</v>
+        <v>1.979515556953773</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04419836779624346</v>
+        <v>2.221058509569398</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0859153214295453</v>
+        <v>2.520869547013956</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03894107373106247</v>
+        <v>2.041838750924611</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04977109122574981</v>
+        <v>2.190820591115434</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.008121641385946319</v>
       </c>
     </row>
     <row r="5">
@@ -555,33 +569,36 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.04481024635349054</v>
+        <v>2.330435193819367</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008756398107500311</v>
+        <v>1.061897808054012</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0327406618541153</v>
+        <v>1.777256205723764</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03273497991737474</v>
+        <v>1.895862853680039</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02976057155812022</v>
+        <v>1.766363015319296</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.078701005854216e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>p-8568</t>
+          <t>p-7612</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>cluster_05</t>
@@ -593,32 +610,35 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.0150440856854237</v>
+        <v>1.77431945032871</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01339575242542638</v>
+        <v>1.934632011802467</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06064482812101771</v>
+        <v>1.548108959195181</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01635944006079334</v>
+        <v>1.163430326876948</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02636102657316528</v>
+        <v>1.605122687050827</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.06492256717294e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>p-7612</t>
+          <t>p-8568</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -631,19 +651,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.02376461829344208</v>
+        <v>1.373467547974462</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02962971893563379</v>
+        <v>1.366314611828522</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02432037875826123</v>
+        <v>2.252392978141999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01369907128746397</v>
+        <v>1.312645144607019</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02285344681870027</v>
+        <v>1.576205070638</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4872385503716935</v>
       </c>
     </row>
     <row r="8">
@@ -669,19 +692,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.02191123117470539</v>
+        <v>1.70313966065556</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01634712524978841</v>
+        <v>1.508879644869766</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02702752330246977</v>
+        <v>1.629466669463534</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01945002954448377</v>
+        <v>1.458179472108647</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02118397731786183</v>
+        <v>1.574916361774377</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3937519540397847</v>
       </c>
     </row>
     <row r="9">
@@ -707,19 +733,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.02669798303625376</v>
+        <v>1.876357096948572</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0158398167542927</v>
+        <v>1.486293321049732</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0182083024145592</v>
+        <v>1.325025644578402</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01913208862538947</v>
+        <v>1.444245724276562</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01996954770762378</v>
+        <v>1.532980446713317</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.02214787513454435</v>
       </c>
     </row>
     <row r="10">
@@ -745,19 +774,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.02208299128808181</v>
+        <v>1.709995426189697</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01072450005282544</v>
+        <v>1.207033092582991</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02513448373797668</v>
+        <v>1.573485645340901</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0207573896635303</v>
+        <v>1.512843707661545</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01967484118560356</v>
+        <v>1.500839467943784</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4307250750250118</v>
       </c>
     </row>
     <row r="11">
@@ -783,67 +815,73 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.007723919694683045</v>
+        <v>0.7888539227130351</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02166155864575532</v>
+        <v>1.710412453357815</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02526915185587814</v>
+        <v>1.577599626605818</v>
       </c>
       <c r="I11" t="n">
-        <v>0.017847094760468</v>
+        <v>1.385851997734091</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01812543123919613</v>
+        <v>1.36567950010269</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.009186068455657e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>p-6964</t>
+          <t>p-11735</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#08ff00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.005673378988022412</v>
+        <v>1.347665309184386</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01283877952829822</v>
+        <v>0.9610427607638996</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0286760604727202</v>
+        <v>1.263571752676227</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01078997230419327</v>
+        <v>1.384591132306794</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01449454782330852</v>
+        <v>1.239217738732827</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.4717416563469096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>p-11735</t>
+          <t>p-7349</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>6</v>
@@ -859,70 +897,76 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.01460919852899677</v>
+        <v>1.057947962946237</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007605860990622978</v>
+        <v>1.125636685791821</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01681336122155172</v>
+        <v>1.342900465699844</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01782082966756886</v>
+        <v>1.389042131096297</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01421231260218508</v>
+        <v>1.22888181138355</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2843680487927731</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>p-7349</t>
+          <t>p-4574</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>cluster_02</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>#08ff00</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.01049803981125954</v>
+        <v>1.391558950238913</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009572273912070786</v>
+        <v>1.447138778592786</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01863602353132794</v>
+        <v>0.6967361746317994</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01791469372872047</v>
+        <v>1.091601639729585</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01415525774584468</v>
+        <v>1.156758885798271</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.03187492559381031</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>p-4574</t>
+          <t>p-6964</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -935,19 +979,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.01535762773325908</v>
+        <v>0.5183482661214581</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01499878247488958</v>
+        <v>1.335937827309275</v>
       </c>
       <c r="H15" t="n">
-        <v>0.008059091143852483</v>
+        <v>1.675058816857791</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01257764560227422</v>
+        <v>0.9627483374660553</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01274828673856884</v>
+        <v>1.123023311938645</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.002010442443877672</v>
       </c>
     </row>
     <row r="16">
@@ -973,32 +1020,35 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.007383000747292002</v>
+        <v>0.7492616535160447</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01010616447538837</v>
+        <v>1.164483091573598</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01585517952640565</v>
+        <v>1.218314376507143</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01678340368282862</v>
+        <v>1.334170913805355</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01253193710797866</v>
+        <v>1.116557508850535</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9752154474068457</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>p-8742</t>
+          <t>p-5382</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1011,32 +1061,35 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.01364584238851387</v>
+        <v>0.7134740970311324</v>
       </c>
       <c r="G17" t="n">
-        <v>0.008368619630974725</v>
+        <v>0.7122280412911878</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002176865377430107</v>
+        <v>1.290575601473428</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01911475156944205</v>
+        <v>0.9396387695152615</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01082651974159019</v>
+        <v>0.9139791273277524</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.01242847813124304</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>p-5382</t>
+          <t>p-5256</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1049,133 +1102,145 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.007087416233937176</v>
+        <v>1.081310320058745</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005373642018377567</v>
+        <v>0.5341953792480842</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01741267117006527</v>
+        <v>0.7554552248863375</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01049791158127606</v>
+        <v>1.230202355516709</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01009291025091402</v>
+        <v>0.9002908199274688</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1820078208924515</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>p-4532</t>
+          <t>p-8742</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>cluster_03</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>#00fff6</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.004811783677510156</v>
+        <v>1.287935872984254</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002963961984565738</v>
+        <v>1.029320683395536</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02958783694845639</v>
+        <v>-0.3121732318351285</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002719551458264124</v>
+        <v>1.443539562236446</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0100207835171991</v>
+        <v>0.8621557216952769</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1098450416892772</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>p-5256</t>
+          <t>p-4160</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#fcf500</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.01078223732273033</v>
+        <v>1.083879084488111</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004190544933051542</v>
+        <v>0.7516519038895842</v>
       </c>
       <c r="H20" t="n">
-        <v>0.008696645491579747</v>
+        <v>0.8336325254587809</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01483051646312634</v>
+        <v>0.7130741251075926</v>
       </c>
       <c r="J20" t="n">
-        <v>0.009624986052621992</v>
+        <v>0.8455594097360173</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0004187839031324429</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>p-4160</t>
+          <t>p-4636</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>cluster_01</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>#fcf500</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.01081303937157435</v>
+        <v>0.4533450095004896</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005677391295209636</v>
+        <v>1.098768577614292</v>
       </c>
       <c r="H21" t="n">
-        <v>0.009625351981270064</v>
+        <v>0.4618039317971496</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008018102829994128</v>
+        <v>1.091353816309458</v>
       </c>
       <c r="J21" t="n">
-        <v>0.008533471369512045</v>
+        <v>0.7763178338053475</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.02065183669472397</v>
       </c>
     </row>
     <row r="22">
@@ -1201,70 +1266,76 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.005416271813979712</v>
+        <v>0.4777319593050424</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008928452757243993</v>
+        <v>1.075686227863146</v>
       </c>
       <c r="H22" t="n">
-        <v>0.004619114973874158</v>
+        <v>0.2677660281650232</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01497633455523086</v>
+        <v>1.238337557831426</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00848504352508218</v>
+        <v>0.7648804432911593</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1149549171910391</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>p-5869</t>
+          <t>p-14692</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" t="n">
         <v>7</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>cluster_03</t>
+          <t>cluster_02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>#00fff6</t>
+          <t>#08ff00</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.02139244115702703</v>
+        <v>0.3772994385843082</v>
       </c>
       <c r="G23" t="n">
-        <v>0.005048843934604284</v>
+        <v>0.6085465950518052</v>
       </c>
       <c r="H23" t="n">
-        <v>0.004351358912318702</v>
+        <v>0.7270150200372903</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002591111834195033</v>
+        <v>1.147331857434814</v>
       </c>
       <c r="J23" t="n">
-        <v>0.008345938959536264</v>
+        <v>0.7150482277770543</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.02440979012233266</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>p-4636</t>
+          <t>p-5950</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1277,67 +1348,73 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.005268087041165798</v>
+        <v>0.980476573007628</v>
       </c>
       <c r="G24" t="n">
-        <v>0.009218659931760057</v>
+        <v>0.9588846064606936</v>
       </c>
       <c r="H24" t="n">
-        <v>0.005941125089660749</v>
+        <v>0.2340093011615218</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0125728426160203</v>
+        <v>0.5519990491526204</v>
       </c>
       <c r="J24" t="n">
-        <v>0.008250178669651727</v>
+        <v>0.681342382445616</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.003735754143924774</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>p-14692</t>
+          <t>p-5869</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>cluster_02</t>
+          <t>cluster_03</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>#08ff00</t>
+          <t>#00fff6</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.004830017913789767</v>
+        <v>1.682139640744479</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004648891329019958</v>
+        <v>0.6675727399673371</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00838224286926415</v>
+        <v>0.2217031320096365</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01343895730737994</v>
+        <v>-0.2367451093433063</v>
       </c>
       <c r="J25" t="n">
-        <v>0.007825027354863453</v>
+        <v>0.5836676008445366</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9261470990900253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>p-10116</t>
+          <t>p-10096</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -1353,146 +1430,158 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.01398117558346757</v>
+        <v>0.1865353708857601</v>
       </c>
       <c r="G26" t="n">
-        <v>0.008298186966136727</v>
+        <v>1.10149801437339</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00073800645642944</v>
+        <v>-0.1174699903115001</v>
       </c>
       <c r="I26" t="n">
-        <v>0.007197434335983454</v>
+        <v>1.049977034643459</v>
       </c>
       <c r="J26" t="n">
-        <v>0.007553700835504296</v>
+        <v>0.5551351073977771</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5223748697670274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>p-5950</t>
+          <t>p-4532</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_03</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#00fff6</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.009610004940244086</v>
+        <v>0.3739860486678974</v>
       </c>
       <c r="G27" t="n">
-        <v>0.007583144963477579</v>
+        <v>0.2861447429420658</v>
       </c>
       <c r="H27" t="n">
-        <v>0.004421246508473724</v>
+        <v>1.699239534349614</v>
       </c>
       <c r="I27" t="n">
-        <v>0.006620191626770659</v>
+        <v>-0.196070263995592</v>
       </c>
       <c r="J27" t="n">
-        <v>0.007058647009741513</v>
+        <v>0.5408250154909965</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.882694847199539e-10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>p-10096</t>
+          <t>p-7765</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>cluster_04</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>#0010ff</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.003885470844501195</v>
+        <v>0.4161536529380109</v>
       </c>
       <c r="G28" t="n">
-        <v>0.009253827005265624</v>
+        <v>0.5240092866147562</v>
       </c>
       <c r="H28" t="n">
-        <v>0.002801854932537422</v>
+        <v>0.2535195972000821</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01196979165159606</v>
+        <v>0.8994194947609575</v>
       </c>
       <c r="J28" t="n">
-        <v>0.006977736108475074</v>
+        <v>0.5232755078784517</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1872224713774333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>p-7765</t>
+          <t>p-10116</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_04</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#0010ff</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.005049227019816481</v>
+        <v>1.3091645801733</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004131375944687195</v>
+        <v>1.023333936387307</v>
       </c>
       <c r="H29" t="n">
-        <v>0.004535216174555236</v>
+        <v>-1.145883119852114</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0100075682810574</v>
+        <v>0.6222950307557422</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005930846855029078</v>
+        <v>0.4522276068660588</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0024798413821293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>p-5423</t>
+          <t>p-4901</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1505,95 +1594,104 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.002674692193730183</v>
+        <v>0.6857533696233238</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00249910932278009</v>
+        <v>0.9305485211643222</v>
       </c>
       <c r="H30" t="n">
-        <v>0.006874504288329103</v>
+        <v>-0.2310332507265071</v>
       </c>
       <c r="I30" t="n">
-        <v>0.009449193588264813</v>
+        <v>0.2400822380410582</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005374374848276047</v>
+        <v>0.4063377195255493</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01233988105264924</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>p-4901</t>
+          <t>p-3754</t>
         </is>
       </c>
       <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
         <v>4</v>
       </c>
-      <c r="C31" t="n">
-        <v>9</v>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>cluster_02</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>#08ff00</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.006866656300450932</v>
+        <v>0.8468421936693118</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007289820644834812</v>
+        <v>0.149975685396934</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002418414692880252</v>
+        <v>0.2208646242054287</v>
       </c>
       <c r="I31" t="n">
-        <v>0.004568284030212713</v>
+        <v>0.2964876235065561</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005285793917094677</v>
+        <v>0.3785425316945576</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01974787180991382</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>p-3754</t>
+          <t>p-5423</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_02</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#08ff00</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.008251826832323745</v>
+        <v>-0.1409300226347017</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00245046136454771</v>
+        <v>0.1640591760352933</v>
       </c>
       <c r="H32" t="n">
-        <v>0.004346322246178406</v>
+        <v>0.5742041601884658</v>
       </c>
       <c r="I32" t="n">
-        <v>0.004885431550396737</v>
+        <v>0.851144206813602</v>
       </c>
       <c r="J32" t="n">
-        <v>0.00498351049836165</v>
+        <v>0.3621193801006648</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1139046246398245</v>
       </c>
     </row>
     <row r="33">
@@ -1619,19 +1717,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.00944042744839458</v>
+        <v>0.9647261386634687</v>
       </c>
       <c r="G33" t="n">
-        <v>0.002123957106970676</v>
+        <v>0.04760706422428799</v>
       </c>
       <c r="H33" t="n">
-        <v>0.003140874868592916</v>
+        <v>-0.02951508326120322</v>
       </c>
       <c r="I33" t="n">
-        <v>0.004967590895138047</v>
+        <v>0.3105979341299744</v>
       </c>
       <c r="J33" t="n">
-        <v>0.004918212579774055</v>
+        <v>0.3233540134391319</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7863698899624423</v>
       </c>
     </row>
     <row r="34">
@@ -1657,108 +1758,117 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.002957043228744888</v>
+        <v>-0.05295057041468989</v>
       </c>
       <c r="G34" t="n">
-        <v>0.005031311962418752</v>
+        <v>0.6651351137261926</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00668445738099015</v>
+        <v>0.5525695743370904</v>
       </c>
       <c r="I34" t="n">
-        <v>0.002664632214907705</v>
+        <v>-0.2131993157279227</v>
       </c>
       <c r="J34" t="n">
-        <v>0.004334361196765374</v>
+        <v>0.2378887004801676</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.891623462909993e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>p-4811</t>
+          <t>p-4940</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>cluster_01</t>
+          <t>cluster_04</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>#fcf500</t>
+          <t>#0010ff</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.002490354814423619</v>
+        <v>-0.1261012138503042</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0006595468342989659</v>
+        <v>-0.01914032759564418</v>
       </c>
       <c r="H35" t="n">
-        <v>0.009961878183895349</v>
+        <v>0.654882756901915</v>
       </c>
       <c r="I35" t="n">
-        <v>0.003515823243004126</v>
+        <v>0.04425634075283267</v>
       </c>
       <c r="J35" t="n">
-        <v>0.004156900768905515</v>
+        <v>0.1384743890521998</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.5868348019590022</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>p-4940</t>
+          <t>p-3779</t>
         </is>
       </c>
       <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
         <v>6</v>
       </c>
-      <c r="C36" t="n">
-        <v>3</v>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>cluster_04</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>#0010ff</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.002720157028937527</v>
+        <v>0.6795458532221192</v>
       </c>
       <c r="G36" t="n">
-        <v>0.001934849931652174</v>
+        <v>0.2163847573596751</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00763272233704152</v>
+        <v>-0.6203841496392115</v>
       </c>
       <c r="I36" t="n">
-        <v>0.003619179537436593</v>
+        <v>0.1954545891141718</v>
       </c>
       <c r="J36" t="n">
-        <v>0.003976727208766954</v>
+        <v>0.1177502625141887</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8056269085708099</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>p-3779</t>
+          <t>p-3804</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1771,219 +1881,237 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.006817705890842487</v>
+        <v>0.3373550743923854</v>
       </c>
       <c r="G37" t="n">
-        <v>0.002688443094462911</v>
+        <v>0.6768129557275195</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001459352951645969</v>
+        <v>-0.4016326395153136</v>
       </c>
       <c r="I37" t="n">
-        <v>0.004332275220281546</v>
+        <v>-0.2798983418896857</v>
       </c>
       <c r="J37" t="n">
-        <v>0.003824444289308228</v>
+        <v>0.08315926217872643</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7092101461783789</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>p-3804</t>
+          <t>p-3710</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_01</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#fcf500</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.004614924585970298</v>
+        <v>-0.4266321088095568</v>
       </c>
       <c r="G38" t="n">
-        <v>0.005114431766895191</v>
+        <v>0.6295110381467425</v>
       </c>
       <c r="H38" t="n">
-        <v>0.001938349001408538</v>
+        <v>0.3861668269698962</v>
       </c>
       <c r="I38" t="n">
-        <v>0.002461419098920235</v>
+        <v>-0.568143628528322</v>
       </c>
       <c r="J38" t="n">
-        <v>0.003532281113298565</v>
+        <v>0.005225531944689971</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.06110782007125715</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>p-3710</t>
+          <t>p-4428</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>cluster_01</t>
+          <t>cluster_03</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>#fcf500</t>
+          <t>#00fff6</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.001930988141346313</v>
+        <v>0.1159836955584728</v>
       </c>
       <c r="G39" t="n">
-        <v>0.004788093572942666</v>
+        <v>0.1046936213596866</v>
       </c>
       <c r="H39" t="n">
-        <v>0.005386333907797423</v>
+        <v>-0.5145736876530381</v>
       </c>
       <c r="I39" t="n">
-        <v>0.001747042300365275</v>
+        <v>0.2871286900282632</v>
       </c>
       <c r="J39" t="n">
-        <v>0.003463114480612919</v>
+        <v>-0.001691920176653885</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.4631997618784479</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>p-3152</t>
+          <t>p-3476</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>cluster_03</t>
+          <t>cluster_01</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>#00fff6</t>
+          <t>#fcf500</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.00241852246652079</v>
+        <v>-0.5668314115855015</v>
       </c>
       <c r="G40" t="n">
-        <v>0.001791169072756462</v>
+        <v>0.4985440124840061</v>
       </c>
       <c r="H40" t="n">
-        <v>0.002336847754587896</v>
+        <v>0.2461740653629695</v>
       </c>
       <c r="I40" t="n">
-        <v>0.006362252651015836</v>
+        <v>-0.1976073148625613</v>
       </c>
       <c r="J40" t="n">
-        <v>0.003227197986220246</v>
+        <v>-0.004930162150271811</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.03165362485147714</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>p-3476</t>
+          <t>p-3152</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>cluster_01</t>
+          <t>cluster_03</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>#fcf500</t>
+          <t>#00fff6</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.001645626899474542</v>
+        <v>-0.2292991141888529</v>
       </c>
       <c r="G41" t="n">
-        <v>0.003987162011816389</v>
+        <v>-0.0744751513234056</v>
       </c>
       <c r="H41" t="n">
-        <v>0.004491638503838051</v>
+        <v>-0.2574560756794265</v>
       </c>
       <c r="I41" t="n">
-        <v>0.002714345140761146</v>
+        <v>0.5185859583396362</v>
       </c>
       <c r="J41" t="n">
-        <v>0.003209693138972532</v>
+        <v>-0.01066109571301221</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.179763923981003e-07</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>p-4428</t>
+          <t>p-4811</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>cluster_03</t>
+          <t>cluster_01</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>#00fff6</t>
+          <t>#fcf500</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.003585492242682358</v>
+        <v>-0.2034901180208732</v>
       </c>
       <c r="G42" t="n">
-        <v>0.002299974566397344</v>
+        <v>-0.7897653972434504</v>
       </c>
       <c r="H42" t="n">
-        <v>0.001674021928457862</v>
+        <v>0.8601197094916299</v>
       </c>
       <c r="I42" t="n">
-        <v>0.004831207944975118</v>
+        <v>0.01988590915630074</v>
       </c>
       <c r="J42" t="n">
-        <v>0.00309767417062817</v>
+        <v>-0.02831247415409826</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.4379571750393336</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>p-3443</t>
+          <t>p-3487</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="n">
         <v>8</v>
@@ -1999,133 +2127,145 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.003624914738289771</v>
+        <v>-0.1413313440690758</v>
       </c>
       <c r="G43" t="n">
-        <v>0.001114362622431342</v>
+        <v>-0.1560962225151296</v>
       </c>
       <c r="H43" t="n">
-        <v>0.003226454508952851</v>
+        <v>0.06794380719272869</v>
       </c>
       <c r="I43" t="n">
-        <v>0.003726423454171154</v>
+        <v>0.0191425699259777</v>
       </c>
       <c r="J43" t="n">
-        <v>0.00292303883096128</v>
+        <v>-0.05258529736637475</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4.556106503428825e-06</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>p-5285</t>
+          <t>p-3443</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_01</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#fcf500</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.002535776931685979</v>
+        <v>0.1255676848611025</v>
       </c>
       <c r="G44" t="n">
-        <v>0.001227475776527747</v>
+        <v>-0.4142384820102196</v>
       </c>
       <c r="H44" t="n">
-        <v>0.003829761607352647</v>
+        <v>-0.008863662740555917</v>
       </c>
       <c r="I44" t="n">
-        <v>0.00384973087523521</v>
+        <v>0.06883541888101172</v>
       </c>
       <c r="J44" t="n">
-        <v>0.002860686297700396</v>
+        <v>-0.05717476025216534</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.01011163036725153</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>p-3487</t>
+          <t>p-5285</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>cluster_01</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>#fcf500</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.002673616657078748</v>
+        <v>-0.1876839545386007</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00159801782497064</v>
+        <v>-0.3450509336962413</v>
       </c>
       <c r="H45" t="n">
-        <v>0.003564372127368756</v>
+        <v>0.1232873503953261</v>
       </c>
       <c r="I45" t="n">
-        <v>0.003512619219893178</v>
+        <v>0.09618362906582545</v>
       </c>
       <c r="J45" t="n">
-        <v>0.002837156457327831</v>
+        <v>-0.07831597719342262</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.3463254798815105</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>p-4966</t>
+          <t>p-3915</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>cluster_04</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>#0010ff</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.001012954645371811</v>
+        <v>-0.2044014252018089</v>
       </c>
       <c r="G46" t="n">
-        <v>0.001845081086184934</v>
+        <v>-0.1094438672187269</v>
       </c>
       <c r="H46" t="n">
-        <v>0.006043435472215978</v>
+        <v>-0.1855637742796845</v>
       </c>
       <c r="I46" t="n">
-        <v>0.001749783008422086</v>
+        <v>-0.141989535176478</v>
       </c>
       <c r="J46" t="n">
-        <v>0.002662813553048702</v>
+        <v>-0.1603496504691746</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.01453918601103526</v>
       </c>
     </row>
     <row r="47">
@@ -2151,209 +2291,227 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.003580776178319227</v>
+        <v>0.1147788958220426</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0008851797968108925</v>
+        <v>-0.5791088971100479</v>
       </c>
       <c r="H47" t="n">
-        <v>0.00151114748533475</v>
+        <v>-0.5934707103550458</v>
       </c>
       <c r="I47" t="n">
-        <v>0.004542517925030719</v>
+        <v>0.2352982896266447</v>
       </c>
       <c r="J47" t="n">
-        <v>0.002629905346373897</v>
+        <v>-0.2056256055041016</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2124663779312072</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>p-10837</t>
+          <t>p-3934</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>cluster_02</t>
+          <t>cluster_03</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>#08ff00</t>
+          <t>#00fff6</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.001275324468556799</v>
+        <v>0.3214078856276068</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0004808839082618327</v>
+        <v>-0.3432067240648745</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00455674433900707</v>
+        <v>-0.3410137345576797</v>
       </c>
       <c r="I48" t="n">
-        <v>0.003820959713507224</v>
+        <v>-0.5386582139188902</v>
       </c>
       <c r="J48" t="n">
-        <v>0.002533478107333231</v>
+        <v>-0.2253676967284594</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.5437730003628061</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>p-3934</t>
+          <t>p-5147</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>cluster_03</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>#00fff6</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.004531396395149954</v>
+        <v>-0.08371140804721607</v>
       </c>
       <c r="G49" t="n">
-        <v>0.001230572985007868</v>
+        <v>-0.3638642437464285</v>
       </c>
       <c r="H49" t="n">
-        <v>0.002096821222479171</v>
+        <v>-0.2731823982579734</v>
       </c>
       <c r="I49" t="n">
-        <v>0.001809379789671729</v>
+        <v>-0.260530673297846</v>
       </c>
       <c r="J49" t="n">
-        <v>0.002417042598077181</v>
+        <v>-0.245322180837366</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.4713157032390254</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>p-3915</t>
+          <t>p-5047</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_04</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#0010ff</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.002487921335541798</v>
+        <v>-0.08415433588651207</v>
       </c>
       <c r="G50" t="n">
-        <v>0.001705624197590666</v>
+        <v>0.0001701368922746472</v>
       </c>
       <c r="H50" t="n">
-        <v>0.002565175529591656</v>
+        <v>-0.589804541244437</v>
       </c>
       <c r="I50" t="n">
-        <v>0.002900190108917</v>
+        <v>-0.3881514710319709</v>
       </c>
       <c r="J50" t="n">
-        <v>0.00241472779291028</v>
+        <v>-0.2654850528176613</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2836728986214893</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>p-5147</t>
+          <t>p-6639</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_02</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#08ff00</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.002855090228099717</v>
+        <v>-0.3111905306337007</v>
       </c>
       <c r="G51" t="n">
-        <v>0.001195538416259984</v>
+        <v>-0.1577611010354783</v>
       </c>
       <c r="H51" t="n">
-        <v>0.002289780147947321</v>
+        <v>-0.5761008416057964</v>
       </c>
       <c r="I51" t="n">
-        <v>0.002518708678998238</v>
+        <v>-0.08755849963224722</v>
       </c>
       <c r="J51" t="n">
-        <v>0.002214779367826315</v>
+        <v>-0.2831527432268056</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.8998915023385108</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>p-3392</t>
+          <t>p-4966</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>cluster_01</t>
+          <t>cluster_04</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>#fcf500</t>
+          <t>#0010ff</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.00143508819522154</v>
+        <v>-0.9922646294098081</v>
       </c>
       <c r="G52" t="n">
-        <v>0.001172422194959055</v>
+        <v>-0.05312774741472615</v>
       </c>
       <c r="H52" t="n">
-        <v>0.001466308973937766</v>
+        <v>0.4748935540041048</v>
       </c>
       <c r="I52" t="n">
-        <v>0.004596456075964516</v>
+        <v>-0.5667895760335294</v>
       </c>
       <c r="J52" t="n">
-        <v>0.002167568860020719</v>
+        <v>-0.2843220997134898</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0001346755719012521</v>
       </c>
     </row>
     <row r="53">
@@ -2379,19 +2537,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.00173706391285121</v>
+        <v>-0.5194140745089905</v>
       </c>
       <c r="G53" t="n">
-        <v>0.000915372585979212</v>
+        <v>-0.5551275577292271</v>
       </c>
       <c r="H53" t="n">
-        <v>0.002884004967952426</v>
+        <v>-0.09533270867623297</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00312964181026069</v>
+        <v>-0.07796465722521284</v>
       </c>
       <c r="J53" t="n">
-        <v>0.002166520819260885</v>
+        <v>-0.3119597495349158</v>
+      </c>
+      <c r="K53" t="n">
+        <v>6.698394275122051e-08</v>
       </c>
     </row>
     <row r="54">
@@ -2417,108 +2578,117 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.001910304020637479</v>
+        <v>-0.4360656801482094</v>
       </c>
       <c r="G54" t="n">
-        <v>0.001093592358575395</v>
+        <v>-0.4276969277272862</v>
       </c>
       <c r="H54" t="n">
-        <v>0.003669043249813283</v>
+        <v>0.0902345726344294</v>
       </c>
       <c r="I54" t="n">
-        <v>0.001891325017205107</v>
+        <v>-0.5013679643159489</v>
       </c>
       <c r="J54" t="n">
-        <v>0.002141066161557816</v>
+        <v>-0.3187239998892538</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.005229708636146257</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>p-5047</t>
+          <t>p-4551</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>cluster_04</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>#0010ff</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.002853462020576125</v>
+        <v>-0.4258932036566271</v>
       </c>
       <c r="G55" t="n">
-        <v>0.001988129922548414</v>
+        <v>-0.2740529240898855</v>
       </c>
       <c r="H55" t="n">
-        <v>0.001518410163951736</v>
+        <v>-0.3183573560218711</v>
       </c>
       <c r="I55" t="n">
-        <v>0.002163854938059382</v>
+        <v>-0.2959559938584715</v>
       </c>
       <c r="J55" t="n">
-        <v>0.002130964261283914</v>
+        <v>-0.3285648694067138</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.8389683173690465</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>p-6639</t>
+          <t>p-3392</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>cluster_02</t>
+          <t>cluster_01</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>#08ff00</t>
+          <t>#fcf500</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.00220257288243322</v>
+        <v>-0.6868505541283586</v>
       </c>
       <c r="G56" t="n">
-        <v>0.001594482519617968</v>
+        <v>-0.3779046928845936</v>
       </c>
       <c r="H56" t="n">
-        <v>0.001545676406439609</v>
+        <v>-0.61669777855175</v>
       </c>
       <c r="I56" t="n">
-        <v>0.003093941576667049</v>
+        <v>0.2452116059316013</v>
       </c>
       <c r="J56" t="n">
-        <v>0.002109168346289461</v>
+        <v>-0.3590603549082753</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.1972037176541287</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>p-3827</t>
+          <t>p-3981</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2531,71 +2701,77 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.001947528315967011</v>
+        <v>-0.4289545132288859</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0006838398439509386</v>
+        <v>-0.4969569583007768</v>
       </c>
       <c r="H57" t="n">
-        <v>0.00290176202133783</v>
+        <v>-0.1454059287347249</v>
       </c>
       <c r="I57" t="n">
-        <v>0.002622612638914964</v>
+        <v>-0.3835363024505533</v>
       </c>
       <c r="J57" t="n">
-        <v>0.002038935705042686</v>
+        <v>-0.3637134256787353</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0001294838594421907</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>p-4551</t>
+          <t>p-10837</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_02</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#08ff00</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.001932483299175695</v>
+        <v>-0.7903424152657275</v>
       </c>
       <c r="G58" t="n">
-        <v>0.001355150816953173</v>
+        <v>-1.015947643938856</v>
       </c>
       <c r="H58" t="n">
-        <v>0.002159376109910134</v>
+        <v>0.2572395903773083</v>
       </c>
       <c r="I58" t="n">
-        <v>0.002414664302435604</v>
+        <v>0.08992400163166729</v>
       </c>
       <c r="J58" t="n">
-        <v>0.001965418632118652</v>
+        <v>-0.364781616798902</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.08461417986701485</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>p-3981</t>
+          <t>p-3827</t>
         </is>
       </c>
       <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
         <v>3</v>
       </c>
-      <c r="C59" t="n">
-        <v>4</v>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>cluster_05</t>
@@ -2607,32 +2783,35 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.001925770269235058</v>
+        <v>-0.419128728154482</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0009928406907707757</v>
+        <v>-0.7639164581042761</v>
       </c>
       <c r="H59" t="n">
-        <v>0.00270262712579095</v>
+        <v>-0.09060065507331068</v>
       </c>
       <c r="I59" t="n">
-        <v>0.002175903009890751</v>
+        <v>-0.2265214774579951</v>
       </c>
       <c r="J59" t="n">
-        <v>0.001949285273921884</v>
+        <v>-0.375041829697516</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.1237558504550177</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>p-11011</t>
+          <t>p-5594</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2645,260 +2824,281 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.001642960568277818</v>
+        <v>-0.2298717002314753</v>
       </c>
       <c r="G60" t="n">
-        <v>0.00127566183905805</v>
+        <v>-0.2275678136800386</v>
       </c>
       <c r="H60" t="n">
-        <v>0.003629391638003682</v>
+        <v>-0.9690286915045613</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0009312205643065674</v>
+        <v>-0.2815401403306872</v>
       </c>
       <c r="J60" t="n">
-        <v>0.00186980865241153</v>
+        <v>-0.4270020864366906</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.1035466985296902</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>p-5594</t>
+          <t>p-5005</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C61" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>cluster_03</t>
+          <t>cluster_04</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>#00fff6</t>
+          <t>#0010ff</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.002416603851556239</v>
+        <v>-0.5791181475711624</v>
       </c>
       <c r="G61" t="n">
-        <v>0.001446243014511653</v>
+        <v>-0.3942581135779319</v>
       </c>
       <c r="H61" t="n">
-        <v>0.000928332318548855</v>
+        <v>-0.08784016201802838</v>
       </c>
       <c r="I61" t="n">
-        <v>0.002456907414982338</v>
+        <v>-0.6673485098776676</v>
       </c>
       <c r="J61" t="n">
-        <v>0.001812021649899771</v>
+        <v>-0.4321412332611976</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.169725846393445</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>p-5005</t>
+          <t>p-11011</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>cluster_04</t>
+          <t>cluster_03</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>#0010ff</t>
+          <t>#00fff6</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.001622708000852693</v>
+        <v>-0.5683018355427161</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00114597585945481</v>
+        <v>-0.3174197991156463</v>
       </c>
       <c r="H62" t="n">
-        <v>0.002912144657707659</v>
+        <v>0.08187802198664554</v>
       </c>
       <c r="I62" t="n">
-        <v>0.001552513213066471</v>
+        <v>-1.097147567753174</v>
       </c>
       <c r="J62" t="n">
-        <v>0.001808335432770408</v>
+        <v>-0.4752477951062228</v>
+      </c>
+      <c r="K62" t="n">
+        <v>8.637660835025258e-06</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>p-4842</t>
+          <t>p-9956</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_04</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#0010ff</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.001275095049220683</v>
+        <v>-0.8184678681621432</v>
       </c>
       <c r="G63" t="n">
-        <v>0.000505774150287909</v>
+        <v>-0.6109036804899411</v>
       </c>
       <c r="H63" t="n">
-        <v>0.003349846513541824</v>
+        <v>-0.1114475813543396</v>
       </c>
       <c r="I63" t="n">
-        <v>0.001783328698386318</v>
+        <v>-0.5756657922093925</v>
       </c>
       <c r="J63" t="n">
-        <v>0.001728511102859183</v>
+        <v>-0.5291212305539541</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0003110339106305105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>p-9956</t>
+          <t>p-4842</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>cluster_04</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>#0010ff</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.001235047312126318</v>
+        <v>-0.790467359822307</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0008466709126985272</v>
+        <v>-0.9798295129366678</v>
       </c>
       <c r="H64" t="n">
-        <v>0.002824332501962219</v>
+        <v>0.02007054991633634</v>
       </c>
       <c r="I64" t="n">
-        <v>0.001731408017474032</v>
+        <v>-0.5508676176673917</v>
       </c>
       <c r="J64" t="n">
-        <v>0.001659364686065274</v>
+        <v>-0.5752734851275075</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9277651649500677</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>p-3372</t>
+          <t>p-4393</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
         <v>9</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>cluster_01</t>
+          <t>cluster_03</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>#fcf500</t>
+          <t>#00fff6</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.002024335588488385</v>
+        <v>-0.2735729950546479</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0007149210019826147</v>
+        <v>-0.5014497783360542</v>
       </c>
       <c r="H65" t="n">
-        <v>0.001755085595619061</v>
+        <v>-0.8216884361395231</v>
       </c>
       <c r="I65" t="n">
-        <v>0.001265248678895822</v>
+        <v>-0.8257510463071968</v>
       </c>
       <c r="J65" t="n">
-        <v>0.00143989771624647</v>
+        <v>-0.6056155639593555</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.1608746367007626</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>p-4393</t>
+          <t>p-3372</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C66" t="n">
         <v>9</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>cluster_03</t>
+          <t>cluster_01</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>#00fff6</t>
+          <t>#fcf500</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.002299138265581984</v>
+        <v>-0.3851026999231713</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0009866426613639721</v>
+        <v>-0.7320850844228444</v>
       </c>
       <c r="H66" t="n">
-        <v>0.001123935721981757</v>
+        <v>-0.4781843087293141</v>
       </c>
       <c r="I66" t="n">
-        <v>0.001285987770489853</v>
+        <v>-0.8393890544734091</v>
       </c>
       <c r="J66" t="n">
-        <v>0.001423926104854392</v>
+        <v>-0.6086902868871846</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.001789837418262889</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>p-8452</t>
+          <t>p-6192</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2911,32 +3111,35 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.0009595336918511721</v>
+        <v>-0.7926444053792129</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0007912290857955518</v>
+        <v>-0.4122241568639159</v>
       </c>
       <c r="H67" t="n">
-        <v>0.001452101637610636</v>
+        <v>-0.7526685878889979</v>
       </c>
       <c r="I67" t="n">
-        <v>0.001889239304858216</v>
+        <v>-0.7425031837888069</v>
       </c>
       <c r="J67" t="n">
-        <v>0.001273025930028894</v>
+        <v>-0.6750100834802334</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0006146300597960236</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>p-6192</t>
+          <t>p-8452</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2949,209 +3152,227 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.001271971224877803</v>
+        <v>-1.039772976068789</v>
       </c>
       <c r="G68" t="n">
-        <v>0.001117519276618791</v>
+        <v>-0.6594804483912511</v>
       </c>
       <c r="H68" t="n">
-        <v>0.001229194393692378</v>
+        <v>-0.6242492475893436</v>
       </c>
       <c r="I68" t="n">
-        <v>0.001419795908674684</v>
+        <v>-0.5023983535240795</v>
       </c>
       <c r="J68" t="n">
-        <v>0.001259620200965914</v>
+        <v>-0.7064752563933658</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.007120138838020023</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>p-3464</t>
+          <t>p-3297</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>cluster_01</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>#fcf500</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.001457806924303457</v>
+        <v>-0.713945048214324</v>
       </c>
       <c r="G69" t="n">
-        <v>0.000567558456124957</v>
+        <v>-0.5130649836674038</v>
       </c>
       <c r="H69" t="n">
-        <v>0.001220421161505872</v>
+        <v>-0.8580584085915504</v>
       </c>
       <c r="I69" t="n">
-        <v>0.001476712272965258</v>
+        <v>-0.8349948385017671</v>
       </c>
       <c r="J69" t="n">
-        <v>0.001180624703724886</v>
+        <v>-0.7300158197437613</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.6096492399496339</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>p-3297</t>
+          <t>p-3464</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_01</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#fcf500</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.001391347945048631</v>
+        <v>-0.6730628132358096</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0009706276292894712</v>
+        <v>-0.8973062593592606</v>
       </c>
       <c r="H70" t="n">
-        <v>0.001072138562521173</v>
+        <v>-0.7582043018478384</v>
       </c>
       <c r="I70" t="n">
-        <v>0.001271893374927083</v>
+        <v>-0.709475941709253</v>
       </c>
       <c r="J70" t="n">
-        <v>0.001176501877946589</v>
+        <v>-0.7595123290380404</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.009503794384702148</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>p-3732</t>
+          <t>p-4192</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>cluster_01</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>#fcf500</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.00149929704927539</v>
+        <v>-0.9880371532972312</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0003368200916961635</v>
+        <v>-0.6478423693871926</v>
       </c>
       <c r="H71" t="n">
-        <v>0.001436855591300987</v>
+        <v>-0.7044410800154817</v>
       </c>
       <c r="I71" t="n">
-        <v>0.001118833547050261</v>
+        <v>-0.8854376177143032</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0010979515698307</v>
+        <v>-0.8064395551035521</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.1759621066768299</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>p-3792</t>
+          <t>p-5218</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>cluster_04</t>
+          <t>cluster_05</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>#0010ff</t>
+          <t>#ee00ff</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.0008395416599994062</v>
+        <v>-0.8612931560868821</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0005780744096239136</v>
+        <v>-0.7880384891915592</v>
       </c>
       <c r="H72" t="n">
-        <v>0.001665302382851762</v>
+        <v>-0.7284280501608552</v>
       </c>
       <c r="I72" t="n">
-        <v>0.001268160454618789</v>
+        <v>-0.9138184482283337</v>
       </c>
       <c r="J72" t="n">
-        <v>0.001087769726773468</v>
+        <v>-0.8228945359169075</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.03569349353302168</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>p-4192</t>
+          <t>p-3792</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_04</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#0010ff</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.001017826477872174</v>
+        <v>-1.156928234018103</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0008041482477859588</v>
+        <v>-0.8842414016830872</v>
       </c>
       <c r="H73" t="n">
-        <v>0.001308573907048678</v>
+        <v>-0.5186360536474283</v>
       </c>
       <c r="I73" t="n">
-        <v>0.00119783390124559</v>
+        <v>-0.8374888253944927</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0010820956334881</v>
+        <v>-0.8493236286857778</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4185919493104693</v>
       </c>
     </row>
     <row r="74">
@@ -3177,57 +3398,63 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.0009010445774058089</v>
+        <v>-1.094947485973293</v>
       </c>
       <c r="G74" t="n">
-        <v>0.001649193769158196</v>
+        <v>-0.1335119217109679</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0006094449334823469</v>
+        <v>-1.293424205359404</v>
       </c>
       <c r="I74" t="n">
-        <v>0.001167925474740095</v>
+        <v>-0.9066945693887304</v>
       </c>
       <c r="J74" t="n">
-        <v>0.001081902188696612</v>
+        <v>-0.8571445456080989</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.5213240201274751</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>p-5218</t>
+          <t>p-3732</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>cluster_05</t>
+          <t>cluster_01</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>#ee00ff</t>
+          <t>#fcf500</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.001176159654005492</v>
+        <v>-0.6485655076482497</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0006611543636106332</v>
+        <v>-1.270942448990863</v>
       </c>
       <c r="H75" t="n">
-        <v>0.001268435278249488</v>
+        <v>-0.6323259769437588</v>
       </c>
       <c r="I75" t="n">
-        <v>0.00115808222249841</v>
+        <v>-0.9428224724770303</v>
       </c>
       <c r="J75" t="n">
-        <v>0.001065957879591006</v>
+        <v>-0.8736641015149754</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.7590734250748037</v>
       </c>
     </row>
     <row r="76">
@@ -3253,32 +3480,35 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.001271880521186822</v>
+        <v>-0.7926782926235258</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0004948521857614275</v>
+        <v>-0.9955146252867764</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0009239838790986446</v>
+        <v>-0.9726827505881034</v>
       </c>
       <c r="I76" t="n">
-        <v>0.001114663612238824</v>
+        <v>-0.9459404617558579</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0009513450495714296</v>
+        <v>-0.9267040325635658</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.275700928383181e-10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>p-3516</t>
+          <t>p-4356</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3291,95 +3521,104 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.001282810900116097</v>
+        <v>-0.7390218435661033</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0003578582084046511</v>
+        <v>-0.8901828708220364</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0009106708477914458</v>
+        <v>-0.9992536166711447</v>
       </c>
       <c r="I77" t="n">
-        <v>0.001180806673514648</v>
+        <v>-1.244309513017807</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0009330366574567103</v>
+        <v>-0.9681919610192729</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.5194001182762076</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>p-8469</t>
+          <t>p-3516</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>cluster_04</t>
+          <t>cluster_03</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>#0010ff</t>
+          <t>#00fff6</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.001487612650095716</v>
+        <v>-0.7851495532686219</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0006163060704645769</v>
+        <v>-1.227600012204413</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0006348681796757999</v>
+        <v>-0.9838639541838375</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0008704768247224467</v>
+        <v>-0.8974381279299974</v>
       </c>
       <c r="J78" t="n">
-        <v>0.000902315931239635</v>
+        <v>-0.9735129118967175</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9062376172843439</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>p-4356</t>
+          <t>p-8469</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>cluster_03</t>
+          <t>cluster_04</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>#00fff6</t>
+          <t>#0010ff</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.001352120193721245</v>
+        <v>-0.6553360375604506</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0005732656579612724</v>
+        <v>-0.8383652276293162</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0008926478193505038</v>
+        <v>-1.261912645326309</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0007816704625734765</v>
+        <v>-1.153844605230693</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0008999260334016244</v>
+        <v>-0.9773646289366924</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.178426420314157</v>
       </c>
     </row>
     <row r="80">
@@ -3405,19 +3644,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0008464229197730389</v>
+        <v>-1.149770241620527</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0004835477306671678</v>
+        <v>-1.012091682660992</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0009418889460783201</v>
+        <v>-0.9578786313855545</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0008893164734822274</v>
+        <v>-1.135802307850063</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0007902940175001886</v>
+        <v>-1.063885715879284</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.2862048450192993</v>
       </c>
     </row>
     <row r="81">
@@ -3443,19 +3685,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0009770948000283133</v>
+        <v>-1.023892652518195</v>
       </c>
       <c r="G81" t="n">
-        <v>0.000609379103560198</v>
+        <v>-0.8464085932560457</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0005015997024634532</v>
+        <v>-1.443578670153172</v>
       </c>
       <c r="I81" t="n">
-        <v>0.001043200400592159</v>
+        <v>-1.001621704580949</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0007828185016610311</v>
+        <v>-1.07887540512709</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.590061229665579e-15</v>
       </c>
     </row>
     <row r="82">
@@ -3481,19 +3726,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.0007711051511059744</v>
+        <v>-1.231465468111645</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0003777863367736181</v>
+        <v>-1.1888085076252</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0008632543191824237</v>
+        <v>-1.025095887010771</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0006238535225159806</v>
+        <v>-1.433960023103847</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0006589998323944992</v>
+        <v>-1.219832471462866</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.6387576944522118</v>
       </c>
     </row>
     <row r="83">
@@ -3519,29 +3767,32 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0007757209787892077</v>
+        <v>-1.226177003440895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0002652997855634352</v>
+        <v>-1.441868219844149</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0008763514535784909</v>
+        <v>-1.01348994297974</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0006992587877426205</v>
+        <v>-1.338027713043871</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0006541577514184386</v>
+        <v>-1.254890719827163</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.848923801635772</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>p-3242</t>
+          <t>p-3256</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -3557,29 +3808,32 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.00059410384645253</v>
+        <v>-1.294423862989179</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0002409445122030387</v>
+        <v>-1.098026885859086</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0006716593542177468</v>
+        <v>-1.327785407494015</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0009973524750497469</v>
+        <v>-1.48408988350706</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0006260150469807656</v>
+        <v>-1.301081509962335</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.0229549106379376</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>p-4473</t>
+          <t>p-3242</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -3595,29 +3849,32 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.000622054709107872</v>
+        <v>-1.460126303131589</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0002654866396395477</v>
+        <v>-1.510863450250491</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0005195233163826287</v>
+        <v>-1.218440976154979</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0009852812190624721</v>
+        <v>-1.039456095175724</v>
       </c>
       <c r="J85" t="n">
-        <v>0.00059808647104813</v>
+        <v>-1.307221706178196</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.3125116092997299</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>p-3256</t>
+          <t>p-4473</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -3633,19 +3890,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.0007176929402054172</v>
+        <v>-1.41983134696461</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0004288489108618335</v>
+        <v>-1.441413504181361</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0005828805843774998</v>
+        <v>-1.416439014496145</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0005877576825013316</v>
+        <v>-1.049675072063559</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0005792950294865205</v>
+        <v>-1.331839734426419</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2659211424924316</v>
       </c>
     </row>
     <row r="87">
@@ -3671,19 +3931,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0007131414688417582</v>
+        <v>-1.299975292984884</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0002460019644201895</v>
+        <v>-1.495920849134297</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0005245102807523346</v>
+        <v>-1.40913899496385</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0004398811250482012</v>
+        <v>-1.727723191255609</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0004808837097656209</v>
+        <v>-1.48318958208466</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.5677009819503578</v>
       </c>
     </row>
     <row r="88">
@@ -3709,19 +3972,22 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.000575774167208414</v>
+        <v>-1.487613413522978</v>
       </c>
       <c r="G88" t="n">
-        <v>0.000129009718459861</v>
+        <v>-1.958098686106436</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0004026188313542696</v>
+        <v>-1.612970767469394</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0005099820649456882</v>
+        <v>-1.603404411692556</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0004043461954920583</v>
+        <v>-1.665521819697841</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0002439192179918831</v>
       </c>
     </row>
     <row r="89">
@@ -3747,19 +4013,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.000296284262568803</v>
+        <v>-2.070142664757621</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0001791900701739127</v>
+        <v>-1.72283204753464</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0003466089848045224</v>
+        <v>-1.72841264540465</v>
       </c>
       <c r="I89" t="n">
-        <v>0.0005914276516282427</v>
+        <v>-1.47884338348451</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0003533777422938702</v>
+        <v>-1.750057685295355</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.5144493967768502</v>
       </c>
     </row>
   </sheetData>
